--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_12.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2740177.930556147</v>
+        <v>2740177.930556145</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4847408.833153756</v>
+        <v>4847408.833153757</v>
       </c>
     </row>
     <row r="11">
@@ -668,52 +668,52 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="H2" t="n">
+      <c r="S2" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="I2" t="n">
+      <c r="T2" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -741,10 +741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="S3" t="n">
+      <c r="Y3" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="T3" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="U3" t="n">
-        <v>24.30129424928645</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1792675346265591</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>27.59002526031614</v>
+        <v>25.04785205983618</v>
       </c>
       <c r="I4" t="n">
         <v>27.59002526031614</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="T5" t="n">
-        <v>27.59002526031614</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="U5" t="n">
-        <v>14.31059503474164</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>25.04785205983618</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>27.59002526031614</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1792675346265591</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,64 +1142,64 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>24.30129424928645</v>
       </c>
-      <c r="G8" t="n">
+      <c r="X8" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="H8" t="n">
+      <c r="Y8" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="I8" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,31 +1209,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>23.55470292302859</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1306,16 +1306,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>25.04785205983618</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>19.72731862540289</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1415,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S11" t="n">
-        <v>24.30129424928645</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T11" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="U11" t="n">
-        <v>27.59002526031614</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="V11" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="T12" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>24.30129424928645</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1546,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1567,19 +1567,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="T13" t="n">
-        <v>19.72731862540289</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1607,67 +1607,67 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="T14" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R14" t="n">
+      <c r="U14" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="W14" t="n">
-        <v>14.31059503474164</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1686,19 +1686,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
+        <v>24.30129424928645</v>
+      </c>
+      <c r="D15" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G15" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>39.58387696184059</v>
@@ -1898,7 +1898,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>24.87477961344436</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2002,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>9.977552361264268</v>
@@ -2044,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2087,22 +2087,22 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2160,25 +2160,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>70.69572208711297</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>59.1788893390142</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2211,16 +2211,16 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2281,13 +2281,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,31 +2360,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>3.265316057196634</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2412,13 +2412,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>51.12024601807692</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>209.7723503089189</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2518,10 +2518,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,76 +2552,76 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I26" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>232.8330857361503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>49.31110394229523</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>28.63324971812364</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2789,76 +2789,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>91.00671443664322</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,25 +2916,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>95.23425580603923</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2992,19 +2992,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3029,73 +3029,73 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3.26531605719669</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>181.9538569390774</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3205,13 +3205,13 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3263,14 +3263,14 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
@@ -3323,13 +3323,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,19 +3342,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -3363,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,19 +3390,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>10.64098622951609</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>7.837102735344149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3500,76 +3500,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
+        <v>1.809496073036188</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -3636,13 +3636,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>104.7383832473596</v>
+        <v>230.5219311756913</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>229.0204371761346</v>
       </c>
       <c r="C41" t="n">
         <v>229.0204371761346</v>
@@ -3746,67 +3746,67 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>191.7305018501946</v>
+      </c>
+      <c r="Y41" t="n">
         <v>229.0204371761346</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>201.7212010647393</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>229.0204371761346</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,28 +3864,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>4.635527465077424</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>229.0204371761346</v>
       </c>
       <c r="W42" t="n">
-        <v>229.0204371761346</v>
+        <v>13.93327152262012</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3904,46 +3904,46 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,10 +4022,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T44" t="n">
         <v>14.31059503474164</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4065,58 +4065,58 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="G45" t="n">
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>24.30129424928645</v>
+      </c>
+      <c r="V45" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="H45" t="n">
+      <c r="W45" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" t="n">
-        <v>24.30129424928645</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>22.44875936050941</v>
+      </c>
+      <c r="D46" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="C46" t="n">
-        <v>22.4487593605094</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C2" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D2" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E2" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F2" t="n">
-        <v>85.81333917329844</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G2" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H2" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I2" t="n">
         <v>2.207202020825291</v>
@@ -4349,31 +4349,31 @@
         <v>110.3601010412646</v>
       </c>
       <c r="Q2" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R2" t="n">
-        <v>110.3601010412646</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="S2" t="n">
-        <v>110.3601010412646</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="T2" t="n">
-        <v>110.3601010412646</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="U2" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V2" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W2" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X2" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y2" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.207202020825291</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C3" t="n">
-        <v>2.207202020825291</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D3" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="E3" t="n">
         <v>2.207202020825291</v>
@@ -4410,16 +4410,16 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K3" t="n">
+        <v>2.207202020825291</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.207202020825291</v>
+      </c>
+      <c r="M3" t="n">
         <v>29.52132702853827</v>
       </c>
-      <c r="L3" t="n">
-        <v>55.73185102583861</v>
-      </c>
-      <c r="M3" t="n">
-        <v>55.73185102583861</v>
-      </c>
       <c r="N3" t="n">
-        <v>55.73185102583861</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="O3" t="n">
         <v>55.73185102583861</v>
@@ -4431,28 +4431,28 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R3" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="S3" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="T3" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="U3" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="V3" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="W3" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="X3" t="n">
         <v>82.49138865710684</v>
       </c>
-      <c r="S3" t="n">
+      <c r="Y3" t="n">
         <v>54.62267627294912</v>
-      </c>
-      <c r="T3" t="n">
-        <v>26.7539638887914</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="X3" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.4888536788635</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="C4" t="n">
-        <v>108.4888536788635</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="D4" t="n">
-        <v>108.4888536788635</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="E4" t="n">
-        <v>108.4888536788635</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="F4" t="n">
-        <v>108.4888536788635</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="G4" t="n">
-        <v>108.3077753610589</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="H4" t="n">
         <v>80.43906297690118</v>
@@ -4504,34 +4504,34 @@
         <v>108.4888536788635</v>
       </c>
       <c r="P4" t="n">
-        <v>108.4888536788635</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="Q4" t="n">
-        <v>108.4888536788635</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="R4" t="n">
-        <v>108.4888536788635</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="S4" t="n">
-        <v>108.4888536788635</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="T4" t="n">
-        <v>108.4888536788635</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="U4" t="n">
-        <v>108.4888536788635</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="V4" t="n">
-        <v>108.4888536788635</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="W4" t="n">
-        <v>108.4888536788635</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="X4" t="n">
-        <v>108.4888536788635</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="Y4" t="n">
-        <v>108.4888536788635</v>
+        <v>105.7399236434024</v>
       </c>
     </row>
     <row r="5">
@@ -4568,16 +4568,16 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K5" t="n">
-        <v>29.52132702853827</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L5" t="n">
-        <v>56.83545203625125</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M5" t="n">
-        <v>56.83545203625125</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N5" t="n">
-        <v>56.83545203625125</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O5" t="n">
         <v>83.04597603355158</v>
@@ -4595,22 +4595,22 @@
         <v>44.53106090472204</v>
       </c>
       <c r="T5" t="n">
-        <v>16.66234852056432</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="U5" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="V5" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W5" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X5" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.207202020825291</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="C6" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="D6" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E6" t="n">
         <v>2.207202020825291</v>
@@ -4647,16 +4647,16 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K6" t="n">
+        <v>2.207202020825291</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.207202020825291</v>
+      </c>
+      <c r="M6" t="n">
         <v>29.52132702853827</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>55.73185102583861</v>
-      </c>
-      <c r="M6" t="n">
-        <v>55.73185102583861</v>
-      </c>
-      <c r="N6" t="n">
-        <v>83.04597603355158</v>
       </c>
       <c r="O6" t="n">
         <v>83.04597603355158</v>
@@ -4668,28 +4668,28 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R6" t="n">
-        <v>85.81333917329844</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S6" t="n">
-        <v>57.94462678914073</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T6" t="n">
-        <v>30.07591440498301</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U6" t="n">
-        <v>30.07591440498301</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V6" t="n">
-        <v>2.207202020825291</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W6" t="n">
-        <v>2.207202020825291</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X6" t="n">
-        <v>2.207202020825291</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.207202020825291</v>
+        <v>110.3601010412646</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.57035059274347</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="C7" t="n">
-        <v>52.57035059274347</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="D7" t="n">
-        <v>52.57035059274347</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="E7" t="n">
-        <v>52.57035059274347</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="F7" t="n">
-        <v>52.57035059274347</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="G7" t="n">
-        <v>52.57035059274347</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="H7" t="n">
-        <v>52.57035059274347</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="I7" t="n">
         <v>52.57035059274347</v>
@@ -4741,34 +4741,34 @@
         <v>108.4888536788635</v>
       </c>
       <c r="P7" t="n">
-        <v>108.4888536788635</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.4888536788635</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="R7" t="n">
-        <v>108.4888536788635</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="S7" t="n">
-        <v>108.4888536788635</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="T7" t="n">
-        <v>108.4888536788635</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="U7" t="n">
-        <v>108.3077753610589</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="V7" t="n">
-        <v>80.43906297690118</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="W7" t="n">
-        <v>80.43906297690118</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="X7" t="n">
-        <v>80.43906297690118</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="Y7" t="n">
-        <v>80.43906297690118</v>
+        <v>105.7399236434024</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C8" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D8" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E8" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F8" t="n">
-        <v>85.81333917329844</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G8" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H8" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I8" t="n">
         <v>2.207202020825291</v>
@@ -4805,13 +4805,13 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K8" t="n">
+        <v>2.207202020825291</v>
+      </c>
+      <c r="L8" t="n">
         <v>29.52132702853827</v>
       </c>
-      <c r="L8" t="n">
-        <v>56.83545203625125</v>
-      </c>
       <c r="M8" t="n">
-        <v>83.04597603355158</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N8" t="n">
         <v>83.04597603355158</v>
@@ -4841,13 +4841,13 @@
         <v>110.3601010412646</v>
       </c>
       <c r="W8" t="n">
-        <v>110.3601010412646</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="X8" t="n">
-        <v>110.3601010412646</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="Y8" t="n">
-        <v>110.3601010412646</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>82.49138865710684</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="C9" t="n">
-        <v>82.49138865710684</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="D9" t="n">
-        <v>82.49138865710684</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E9" t="n">
-        <v>82.49138865710684</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F9" t="n">
-        <v>82.49138865710684</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G9" t="n">
-        <v>58.69875944192644</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H9" t="n">
-        <v>30.83004705776872</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I9" t="n">
-        <v>2.961334673611005</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J9" t="n">
         <v>2.207202020825291</v>
       </c>
       <c r="K9" t="n">
-        <v>29.52132702853827</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L9" t="n">
+        <v>2.207202020825291</v>
+      </c>
+      <c r="M9" t="n">
+        <v>28.41772601812563</v>
+      </c>
+      <c r="N9" t="n">
         <v>55.73185102583861</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
+        <v>55.73185102583861</v>
+      </c>
+      <c r="P9" t="n">
         <v>83.04597603355158</v>
-      </c>
-      <c r="N9" t="n">
-        <v>110.3601010412646</v>
-      </c>
-      <c r="O9" t="n">
-        <v>110.3601010412646</v>
-      </c>
-      <c r="P9" t="n">
-        <v>110.3601010412646</v>
       </c>
       <c r="Q9" t="n">
         <v>110.3601010412646</v>
       </c>
       <c r="R9" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S9" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T9" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U9" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V9" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W9" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X9" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y9" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.207202020825291</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="C10" t="n">
-        <v>2.207202020825291</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="D10" t="n">
-        <v>2.207202020825291</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="E10" t="n">
-        <v>2.207202020825291</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="F10" t="n">
-        <v>2.207202020825291</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="G10" t="n">
-        <v>2.207202020825291</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="H10" t="n">
-        <v>2.207202020825291</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="I10" t="n">
-        <v>2.207202020825291</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="J10" t="n">
-        <v>2.207202020825291</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="K10" t="n">
         <v>2.207202020825291</v>
@@ -4981,31 +4981,31 @@
         <v>105.7399236434024</v>
       </c>
       <c r="Q10" t="n">
-        <v>77.87121125924466</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="R10" t="n">
-        <v>50.00249887508694</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="S10" t="n">
-        <v>22.13378649092923</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="T10" t="n">
-        <v>2.207202020825291</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="U10" t="n">
-        <v>2.207202020825291</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="V10" t="n">
-        <v>2.207202020825291</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="W10" t="n">
-        <v>2.207202020825291</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="X10" t="n">
-        <v>2.207202020825291</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.207202020825291</v>
+        <v>105.7399236434024</v>
       </c>
     </row>
     <row r="11">
@@ -5042,19 +5042,19 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K11" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L11" t="n">
-        <v>28.41772601812563</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M11" t="n">
-        <v>55.73185102583861</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N11" t="n">
-        <v>83.04597603355158</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="O11" t="n">
-        <v>83.04597603355158</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="P11" t="n">
         <v>110.3601010412646</v>
@@ -5063,16 +5063,16 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R11" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S11" t="n">
-        <v>85.81333917329844</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="T11" t="n">
-        <v>57.94462678914073</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="U11" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V11" t="n">
         <v>2.207202020825291</v>
@@ -5121,22 +5121,22 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K12" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L12" t="n">
-        <v>2.207202020825291</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M12" t="n">
-        <v>28.41772601812563</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N12" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O12" t="n">
         <v>83.04597603355158</v>
       </c>
       <c r="P12" t="n">
-        <v>110.3601010412646</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q12" t="n">
         <v>110.3601010412646</v>
@@ -5148,13 +5148,13 @@
         <v>54.62267627294912</v>
       </c>
       <c r="T12" t="n">
-        <v>26.7539638887914</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="U12" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="V12" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W12" t="n">
         <v>2.207202020825291</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.207202020825291</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="C13" t="n">
-        <v>2.207202020825291</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="D13" t="n">
-        <v>2.207202020825291</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="E13" t="n">
-        <v>2.207202020825291</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="F13" t="n">
-        <v>2.207202020825291</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="G13" t="n">
-        <v>2.207202020825291</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="H13" t="n">
-        <v>2.207202020825291</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="I13" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="J13" t="n">
         <v>2.207202020825291</v>
@@ -5215,34 +5215,34 @@
         <v>108.4888536788635</v>
       </c>
       <c r="P13" t="n">
-        <v>105.7399236434024</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.87121125924466</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R13" t="n">
-        <v>50.00249887508694</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S13" t="n">
-        <v>22.13378649092923</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="T13" t="n">
-        <v>2.207202020825291</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="U13" t="n">
-        <v>2.207202020825291</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="V13" t="n">
-        <v>2.207202020825291</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="W13" t="n">
-        <v>2.207202020825291</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="X13" t="n">
-        <v>2.207202020825291</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.207202020825291</v>
+        <v>80.62014129470579</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C14" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D14" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E14" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F14" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G14" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H14" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I14" t="n">
         <v>2.207202020825291</v>
@@ -5279,49 +5279,49 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K14" t="n">
-        <v>29.52132702853827</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L14" t="n">
-        <v>56.83545203625125</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M14" t="n">
-        <v>84.14957704396423</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="N14" t="n">
-        <v>110.3601010412646</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O14" t="n">
-        <v>110.3601010412646</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P14" t="n">
         <v>110.3601010412646</v>
       </c>
       <c r="Q14" t="n">
-        <v>100.2684856730375</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R14" t="n">
-        <v>72.39977328887976</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S14" t="n">
-        <v>72.39977328887976</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T14" t="n">
-        <v>72.39977328887976</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="U14" t="n">
-        <v>72.39977328887976</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="V14" t="n">
-        <v>72.39977328887976</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W14" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X14" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y14" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="C15" t="n">
-        <v>54.62267627294912</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="D15" t="n">
-        <v>54.62267627294912</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="E15" t="n">
-        <v>26.7539638887914</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F15" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G15" t="n">
         <v>2.207202020825291</v>
@@ -5358,49 +5358,49 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K15" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L15" t="n">
-        <v>29.52132702853827</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M15" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N15" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O15" t="n">
         <v>83.04597603355158</v>
       </c>
       <c r="P15" t="n">
-        <v>110.3601010412646</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q15" t="n">
         <v>110.3601010412646</v>
       </c>
       <c r="R15" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S15" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T15" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U15" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V15" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W15" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X15" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y15" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
     </row>
     <row r="16">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C17" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D17" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E17" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F17" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G17" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H17" t="n">
         <v>3.166710156947247</v>
@@ -5516,49 +5516,49 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K17" t="n">
-        <v>3.166710156947247</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L17" t="n">
-        <v>42.35474834916943</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M17" t="n">
-        <v>81.54278654139161</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N17" t="n">
         <v>119.1474696551402</v>
       </c>
       <c r="O17" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P17" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="Q17" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R17" t="n">
-        <v>118.3517937444931</v>
+        <v>108.260178376266</v>
       </c>
       <c r="S17" t="n">
-        <v>78.36807964162378</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="T17" t="n">
-        <v>38.38436553875449</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="U17" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V17" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W17" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X17" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y17" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="18">
@@ -5595,13 +5595,13 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K18" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L18" t="n">
         <v>42.35474834916943</v>
       </c>
       <c r="M18" t="n">
-        <v>79.95943146291799</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N18" t="n">
         <v>79.95943146291799</v>
@@ -5610,7 +5610,7 @@
         <v>119.1474696551402</v>
       </c>
       <c r="P18" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q18" t="n">
         <v>158.3355078473624</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.21247408113457</v>
+        <v>13.245045875396</v>
       </c>
       <c r="C19" t="n">
-        <v>53.22875997826529</v>
+        <v>13.245045875396</v>
       </c>
       <c r="D19" t="n">
         <v>13.245045875396</v>
@@ -5692,31 +5692,31 @@
         <v>133.1961881840039</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.1961881840039</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="R19" t="n">
-        <v>133.1961881840039</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="S19" t="n">
-        <v>133.1961881840039</v>
+        <v>13.245045875396</v>
       </c>
       <c r="T19" t="n">
-        <v>133.1961881840039</v>
+        <v>13.245045875396</v>
       </c>
       <c r="U19" t="n">
-        <v>133.1961881840039</v>
+        <v>13.245045875396</v>
       </c>
       <c r="V19" t="n">
-        <v>133.1961881840039</v>
+        <v>13.245045875396</v>
       </c>
       <c r="W19" t="n">
-        <v>133.1961881840039</v>
+        <v>13.245045875396</v>
       </c>
       <c r="X19" t="n">
-        <v>133.1961881840039</v>
+        <v>13.245045875396</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.21247408113457</v>
+        <v>13.245045875396</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C20" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D20" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5777,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>217.7886244255914</v>
+        <v>411.6785506544679</v>
       </c>
       <c r="C21" t="n">
-        <v>217.7886244255914</v>
+        <v>237.2255213733409</v>
       </c>
       <c r="D21" t="n">
-        <v>217.7886244255914</v>
+        <v>237.2255213733409</v>
       </c>
       <c r="E21" t="n">
-        <v>217.7886244255914</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F21" t="n">
-        <v>217.7886244255914</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>79.05779900820687</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>79.05779900820687</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5859,22 +5859,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>425.5489231905453</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W21" t="n">
-        <v>425.5489231905453</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X21" t="n">
-        <v>425.5489231905453</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y21" t="n">
-        <v>217.7886244255914</v>
+        <v>411.6785506544679</v>
       </c>
     </row>
     <row r="22">
@@ -5929,19 +5929,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U23" t="n">
-        <v>752.9257720901863</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>71.67188790247008</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C24" t="n">
-        <v>71.67188790247008</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D24" t="n">
-        <v>71.67188790247008</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E24" t="n">
-        <v>71.67188790247008</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F24" t="n">
-        <v>71.67188790247008</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G24" t="n">
-        <v>71.67188790247008</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H24" t="n">
-        <v>71.67188790247008</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>496.4894350879777</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>487.2836868729568</v>
+        <v>752.1658925723343</v>
       </c>
       <c r="W24" t="n">
-        <v>487.2836868729568</v>
+        <v>508.7171159282343</v>
       </c>
       <c r="X24" t="n">
-        <v>279.432186667424</v>
+        <v>300.8656157227014</v>
       </c>
       <c r="Y24" t="n">
-        <v>71.67188790247008</v>
+        <v>300.8656157227014</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>475.3318284112885</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C26" t="n">
-        <v>475.3318284112885</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D26" t="n">
-        <v>475.3318284112885</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E26" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W26" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y26" t="n">
-        <v>718.7806050553886</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>269.5723599112974</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>269.5723599112974</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>269.5723599112974</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6315,7 +6315,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>712.019119383956</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6333,22 +6333,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>298.4948343740486</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W27" t="n">
-        <v>269.5723599112974</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X27" t="n">
-        <v>269.5723599112974</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y27" t="n">
-        <v>269.5723599112974</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="28">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6485,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>569.2254314512334</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>569.2254314512334</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>569.2254314512334</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y29" t="n">
-        <v>569.2254314512334</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6549,13 +6549,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6564,28 +6564,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>867.860937524738</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>867.860937524738</v>
       </c>
       <c r="T30" t="n">
-        <v>790.6398109613051</v>
+        <v>867.860937524738</v>
       </c>
       <c r="U30" t="n">
-        <v>562.4161926976942</v>
+        <v>867.860937524738</v>
       </c>
       <c r="V30" t="n">
-        <v>562.4161926976942</v>
+        <v>867.860937524738</v>
       </c>
       <c r="W30" t="n">
-        <v>318.9674160535941</v>
+        <v>867.860937524738</v>
       </c>
       <c r="X30" t="n">
-        <v>318.9674160535941</v>
+        <v>660.0094373192052</v>
       </c>
       <c r="Y30" t="n">
-        <v>111.2071172886402</v>
+        <v>452.2491385542513</v>
       </c>
     </row>
     <row r="31">
@@ -6640,16 +6640,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
         <v>19.28114311021272</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6725,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>752.9257720901863</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6789,13 +6789,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6807,22 +6807,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>726.1056462496665</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>497.8820279860555</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>262.7299197543128</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W33" t="n">
-        <v>19.28114311021272</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K34" t="n">
         <v>19.28114311021272</v>
@@ -6886,22 +6886,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
         <v>19.28114311021272</v>
@@ -6971,16 +6971,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6990,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>787.9255531013317</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="C36" t="n">
-        <v>613.4725238202047</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="D36" t="n">
-        <v>464.5381141589534</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="E36" t="n">
-        <v>305.3006591534979</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="F36" t="n">
-        <v>158.7661011803829</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="Y36" t="n">
-        <v>956.1408901213997</v>
+        <v>248.3115976704407</v>
       </c>
     </row>
     <row r="37">
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
         <v>829.5248650203655</v>
@@ -7123,22 +7123,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7217,7 +7217,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7257,16 +7257,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7275,19 +7275,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>360.2295980564601</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V39" t="n">
-        <v>125.0774898247174</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W39" t="n">
         <v>19.28114311021272</v>
@@ -7348,22 +7348,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
         <v>19.28114311021272</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>684.7479737791499</v>
+        <v>249.6554098994793</v>
       </c>
       <c r="C41" t="n">
-        <v>453.4141988537614</v>
+        <v>18.32163497409077</v>
       </c>
       <c r="D41" t="n">
-        <v>453.4141988537614</v>
+        <v>18.32163497409077</v>
       </c>
       <c r="E41" t="n">
-        <v>222.0804239283729</v>
+        <v>18.32163497409077</v>
       </c>
       <c r="F41" t="n">
-        <v>222.0804239283729</v>
+        <v>18.32163497409077</v>
       </c>
       <c r="G41" t="n">
-        <v>222.0804239283729</v>
+        <v>18.32163497409077</v>
       </c>
       <c r="H41" t="n">
         <v>18.32163497409077</v>
@@ -7430,31 +7430,31 @@
         <v>916.0817487045384</v>
       </c>
       <c r="Q41" t="n">
-        <v>916.0817487045384</v>
+        <v>905.9901333363114</v>
       </c>
       <c r="R41" t="n">
-        <v>916.0817487045384</v>
+        <v>905.9901333363114</v>
       </c>
       <c r="S41" t="n">
-        <v>916.0817487045384</v>
+        <v>905.9901333363114</v>
       </c>
       <c r="T41" t="n">
-        <v>916.0817487045384</v>
+        <v>905.9901333363114</v>
       </c>
       <c r="U41" t="n">
-        <v>916.0817487045384</v>
+        <v>905.9901333363114</v>
       </c>
       <c r="V41" t="n">
-        <v>684.7479737791499</v>
+        <v>905.9901333363114</v>
       </c>
       <c r="W41" t="n">
-        <v>684.7479737791499</v>
+        <v>905.9901333363114</v>
       </c>
       <c r="X41" t="n">
-        <v>684.7479737791499</v>
+        <v>712.3229597502562</v>
       </c>
       <c r="Y41" t="n">
-        <v>684.7479737791499</v>
+        <v>480.9891848248677</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>18.32163497409077</v>
+        <v>193.5287969080035</v>
       </c>
       <c r="C42" t="n">
-        <v>18.32163497409077</v>
+        <v>19.07576762687648</v>
       </c>
       <c r="D42" t="n">
-        <v>18.32163497409077</v>
+        <v>19.07576762687648</v>
       </c>
       <c r="E42" t="n">
-        <v>18.32163497409077</v>
+        <v>19.07576762687648</v>
       </c>
       <c r="F42" t="n">
-        <v>18.32163497409077</v>
+        <v>19.07576762687648</v>
       </c>
       <c r="G42" t="n">
-        <v>18.32163497409077</v>
+        <v>19.07576762687648</v>
       </c>
       <c r="H42" t="n">
-        <v>18.32163497409077</v>
+        <v>19.07576762687648</v>
       </c>
       <c r="I42" t="n">
-        <v>18.32163497409077</v>
+        <v>19.07576762687648</v>
       </c>
       <c r="J42" t="n">
         <v>18.32163497409077</v>
@@ -7494,46 +7494,46 @@
         <v>18.32163497409077</v>
       </c>
       <c r="L42" t="n">
-        <v>18.32163497409077</v>
+        <v>53.24757267806774</v>
       </c>
       <c r="M42" t="n">
-        <v>245.051867778464</v>
+        <v>279.977805482441</v>
       </c>
       <c r="N42" t="n">
-        <v>437.313479773485</v>
+        <v>506.7080382868143</v>
       </c>
       <c r="O42" t="n">
-        <v>664.0437125778583</v>
+        <v>733.4382710911875</v>
       </c>
       <c r="P42" t="n">
-        <v>846.6871901912091</v>
+        <v>916.0817487045384</v>
       </c>
       <c r="Q42" t="n">
         <v>916.0817487045384</v>
       </c>
       <c r="R42" t="n">
-        <v>916.0817487045384</v>
+        <v>814.9122192574241</v>
       </c>
       <c r="S42" t="n">
-        <v>911.3993977297127</v>
+        <v>814.9122192574241</v>
       </c>
       <c r="T42" t="n">
-        <v>709.2128030884787</v>
+        <v>814.9122192574241</v>
       </c>
       <c r="U42" t="n">
-        <v>480.9891848248677</v>
+        <v>814.9122192574241</v>
       </c>
       <c r="V42" t="n">
-        <v>249.6554098994793</v>
+        <v>583.5784443320356</v>
       </c>
       <c r="W42" t="n">
-        <v>18.32163497409077</v>
+        <v>569.5044326930254</v>
       </c>
       <c r="X42" t="n">
-        <v>18.32163497409077</v>
+        <v>569.5044326930254</v>
       </c>
       <c r="Y42" t="n">
-        <v>18.32163497409077</v>
+        <v>361.7441339280715</v>
       </c>
     </row>
     <row r="43">
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>152.8539254643615</v>
+        <v>18.32163497409077</v>
       </c>
       <c r="C43" t="n">
-        <v>152.8539254643615</v>
+        <v>18.32163497409077</v>
       </c>
       <c r="D43" t="n">
-        <v>152.8539254643615</v>
+        <v>18.32163497409077</v>
       </c>
       <c r="E43" t="n">
         <v>18.32163497409077</v>
@@ -7591,28 +7591,28 @@
         <v>152.8539254643615</v>
       </c>
       <c r="R43" t="n">
-        <v>152.8539254643615</v>
+        <v>18.32163497409077</v>
       </c>
       <c r="S43" t="n">
-        <v>152.8539254643615</v>
+        <v>18.32163497409077</v>
       </c>
       <c r="T43" t="n">
-        <v>152.8539254643615</v>
+        <v>18.32163497409077</v>
       </c>
       <c r="U43" t="n">
-        <v>152.8539254643615</v>
+        <v>18.32163497409077</v>
       </c>
       <c r="V43" t="n">
-        <v>152.8539254643615</v>
+        <v>18.32163497409077</v>
       </c>
       <c r="W43" t="n">
-        <v>152.8539254643615</v>
+        <v>18.32163497409077</v>
       </c>
       <c r="X43" t="n">
-        <v>152.8539254643615</v>
+        <v>18.32163497409077</v>
       </c>
       <c r="Y43" t="n">
-        <v>152.8539254643615</v>
+        <v>18.32163497409077</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C44" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D44" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E44" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F44" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G44" t="n">
         <v>2.207202020825291</v>
@@ -7652,16 +7652,16 @@
         <v>2.207202020825291</v>
       </c>
       <c r="L44" t="n">
+        <v>2.207202020825291</v>
+      </c>
+      <c r="M44" t="n">
         <v>29.52132702853827</v>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>56.83545203625125</v>
       </c>
-      <c r="N44" t="n">
-        <v>84.14957704396423</v>
-      </c>
       <c r="O44" t="n">
-        <v>110.3601010412646</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P44" t="n">
         <v>110.3601010412646</v>
@@ -7670,28 +7670,28 @@
         <v>100.2684856730375</v>
       </c>
       <c r="R44" t="n">
-        <v>100.2684856730375</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="S44" t="n">
-        <v>100.2684856730375</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="T44" t="n">
-        <v>85.81333917329844</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="U44" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V44" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W44" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X44" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y44" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>85.81333917329844</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C45" t="n">
-        <v>85.81333917329844</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D45" t="n">
-        <v>85.81333917329844</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E45" t="n">
-        <v>85.81333917329844</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F45" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G45" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H45" t="n">
         <v>2.207202020825291</v>
@@ -7728,49 +7728,49 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K45" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L45" t="n">
-        <v>2.207202020825291</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M45" t="n">
-        <v>28.41772601812563</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N45" t="n">
-        <v>28.41772601812563</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O45" t="n">
-        <v>55.73185102583861</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P45" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q45" t="n">
         <v>110.3601010412646</v>
       </c>
       <c r="R45" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S45" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T45" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U45" t="n">
-        <v>110.3601010412646</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V45" t="n">
-        <v>85.81333917329844</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W45" t="n">
-        <v>85.81333917329844</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X45" t="n">
-        <v>85.81333917329844</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y45" t="n">
-        <v>85.81333917329844</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.62267627294912</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="C46" t="n">
-        <v>31.94716176738407</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="D46" t="n">
-        <v>31.94716176738407</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="E46" t="n">
-        <v>31.94716176738407</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="F46" t="n">
-        <v>31.94716176738407</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G46" t="n">
-        <v>31.94716176738407</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H46" t="n">
-        <v>31.94716176738407</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I46" t="n">
-        <v>4.078449383226349</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J46" t="n">
-        <v>4.078449383226349</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K46" t="n">
-        <v>4.078449383226349</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L46" t="n">
-        <v>31.39257439093933</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M46" t="n">
-        <v>58.7066993986523</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N46" t="n">
-        <v>86.02082440636528</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O46" t="n">
-        <v>110.3601010412646</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P46" t="n">
-        <v>110.3601010412646</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q46" t="n">
-        <v>110.3601010412646</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R46" t="n">
-        <v>110.3601010412646</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S46" t="n">
-        <v>110.3601010412646</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T46" t="n">
-        <v>110.3601010412646</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U46" t="n">
-        <v>110.3601010412646</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="V46" t="n">
-        <v>110.3601010412646</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="W46" t="n">
-        <v>82.49138865710684</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="X46" t="n">
-        <v>82.49138865710684</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Y46" t="n">
-        <v>82.49138865710684</v>
+        <v>108.4888536788635</v>
       </c>
     </row>
   </sheetData>
@@ -8058,19 +8058,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>165.029656544824</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>169.0715212093943</v>
       </c>
       <c r="P3" t="n">
         <v>161.5644326746464</v>
@@ -8216,19 +8216,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>247.6798763052967</v>
+        <v>246.5651278099304</v>
       </c>
       <c r="L5" t="n">
-        <v>263.3564402303034</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O5" t="n">
-        <v>256.5734881866366</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
         <v>258.8230210155857</v>
@@ -8295,19 +8295,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>165.029656544824</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N6" t="n">
-        <v>158.9317373436494</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>247.6798763052967</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>263.3564402303034</v>
@@ -8462,7 +8462,7 @@
         <v>256.8215099922226</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O8" t="n">
         <v>230.0982114216867</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>165.029656544824</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>169.7240591823345</v>
+        <v>168.6093106869682</v>
       </c>
       <c r="N9" t="n">
         <v>158.9317373436494</v>
@@ -8547,10 +8547,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L11" t="n">
-        <v>262.2416917349371</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M11" t="n">
-        <v>257.9362584875889</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>257.0030888569071</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P11" t="n">
-        <v>258.8230210155857</v>
+        <v>257.7082725202194</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M12" t="n">
         <v>168.6093106869681</v>
       </c>
       <c r="N12" t="n">
-        <v>158.9317373436494</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>247.6798763052967</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>263.3564402303034</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
-        <v>257.9362584875889</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N14" t="n">
-        <v>255.8883403615407</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L15" t="n">
         <v>166.1444050401903</v>
@@ -9018,13 +9018,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,22 +9164,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>258.0743794427063</v>
       </c>
       <c r="L17" t="n">
         <v>275.3502919318278</v>
       </c>
       <c r="M17" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
-        <v>267.3975919943167</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P17" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L18" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O18" t="n">
         <v>182.180121406285</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q18" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9717,10 +9717,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
@@ -9729,13 +9729,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>360.302996258564</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9963,10 +9963,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10197,16 +10197,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10437,16 +10437,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,13 +10674,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10905,19 +10905,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11142,13 +11142,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>173.8331047333863</v>
       </c>
       <c r="M42" t="n">
         <v>371.154471098153</v>
       </c>
       <c r="N42" t="n">
-        <v>325.5453605631525</v>
+        <v>360.3621492594679</v>
       </c>
       <c r="O42" t="n">
         <v>371.616681620579</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11300,7 +11300,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>263.3564402303034</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
         <v>257.9362584875889</v>
@@ -11312,7 +11312,7 @@
         <v>256.5734881866366</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M45" t="n">
-        <v>168.6093106869681</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O45" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22556,16 +22556,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>382.574751492425</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>387.7127122548189</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>311.884776855451</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>182.8858643100898</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22589,19 +22589,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>237.0350578730948</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22629,10 +22629,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>119.8550403043226</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>133.3437862061145</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22671,16 +22671,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>144.0931458435217</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>172.5747034345055</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>201.6400878316884</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22689,10 +22689,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>178.1829599431613</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>178.0926705169882</v>
       </c>
     </row>
     <row r="4">
@@ -22717,10 +22717,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.8117118238322</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>134.6371472471234</v>
+        <v>137.1793204476034</v>
       </c>
       <c r="I4" t="n">
         <v>127.8604496669421</v>
@@ -22744,7 +22744,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22781,7 +22781,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>355.1438164031645</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22835,10 +22835,10 @@
         <v>181.4300443259292</v>
       </c>
       <c r="T5" t="n">
-        <v>195.5058243038152</v>
+        <v>208.7852545293897</v>
       </c>
       <c r="U5" t="n">
-        <v>237.0350578730948</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22860,16 +22860,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>138.9431583895512</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>148.4072047390293</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>119.8550403043226</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>130.0550551950848</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22908,19 +22908,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>75.85653990335669</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>144.0931458435217</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>172.5747034345055</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>205.2105618891091</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22939,7 +22939,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>152.2419549216212</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22951,7 +22951,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>120.3731959630951</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -22960,7 +22960,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>127.8604496669421</v>
       </c>
       <c r="J7" t="n">
         <v>65.76915485635664</v>
@@ -22981,7 +22981,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -22996,10 +22996,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.1397618218643</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>224.5476180635119</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23018,7 +23018,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>355.1438164031645</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23030,16 +23030,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>382.574751492425</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>387.7127122548189</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>311.884776855451</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>182.8858643100898</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23081,13 +23081,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>324.9396744681266</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>342.1410754181529</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>358.6479133957374</v>
       </c>
     </row>
     <row r="9">
@@ -23097,31 +23097,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>142.2318894005809</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>145.1184737279996</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>119.8550403043226</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>130.0550551950848</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>113.788814240182</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>84.64541897618032</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>61.80660759109894</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,7 +23145,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23194,16 +23194,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>137.1793204476034</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>127.8604496669421</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>65.76915485635664</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,16 +23221,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>58.57201799137825</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>196.4265727766561</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>208.2182708028786</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23303,19 +23303,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S11" t="n">
-        <v>184.7187753369589</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T11" t="n">
         <v>195.5058243038152</v>
       </c>
       <c r="U11" t="n">
-        <v>223.7556276475204</v>
+        <v>227.04435865855</v>
       </c>
       <c r="V11" t="n">
-        <v>300.1622332098187</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23388,7 +23388,7 @@
         <v>144.0931458435217</v>
       </c>
       <c r="T12" t="n">
-        <v>172.5747034345055</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>201.6400878316884</v>
@@ -23397,7 +23397,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>139.6567958383117</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23434,10 +23434,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>133.0017155667489</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>65.76915485635664</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -23455,19 +23455,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>58.57201799137825</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>196.4265727766561</v>
       </c>
       <c r="T13" t="n">
-        <v>208.2182708028786</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23495,7 +23495,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>337.6828665106914</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23513,7 +23513,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>182.8858643100898</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23537,25 +23537,25 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>122.2790926808335</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>223.7556276475204</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>303.4509642208484</v>
       </c>
       <c r="W14" t="n">
-        <v>334.9303736826714</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23574,19 +23574,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>145.1184737279996</v>
+        <v>148.4072047390293</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>119.8550403043226</v>
       </c>
       <c r="E15" t="n">
         <v>130.0550551950848</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>117.4791871330677</v>
       </c>
       <c r="G15" t="n">
-        <v>113.0422229139242</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23747,7 +23747,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>304.609323287778</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23774,7 +23774,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>110.2852409793091</v>
@@ -23786,7 +23786,7 @@
         <v>183.5119726022908</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>226.4708732943921</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23890,10 +23890,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>127.6629441367872</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>109.0315960563718</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>136.4564102853049</v>
@@ -23932,13 +23932,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>179.0007763902542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23975,22 +23975,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>378.6650540150651</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24029,7 +24029,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24048,25 +24048,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>86.94935836828797</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>30.21774351240088</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24099,16 +24099,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24169,13 +24169,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24184,7 +24184,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>205.1127189901543</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24212,7 +24212,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>341.4540909391267</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24227,7 +24227,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,31 +24248,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>324.4869424129383</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24300,13 +24300,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>38.27638683333816</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>23.02823684050639</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24406,10 +24406,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24421,7 +24421,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,19 +24449,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24485,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24500,16 +24500,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>153.4048529199032</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>117.2220797075721</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24528,7 +24528,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24540,7 +24540,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24573,22 +24573,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>223.061733442796</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24677,19 +24677,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>344.4597780394191</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24725,7 +24725,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24737,16 +24737,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24756,10 +24756,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>75.52646921322412</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24777,7 +24777,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24804,25 +24804,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>4.923578346603904</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24880,19 +24880,19 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24917,7 +24917,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24932,10 +24932,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>207.2105735132092</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24965,7 +24965,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24977,13 +24977,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25047,22 +25047,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>64.75056867910476</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>50.84673021034791</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25093,13 +25093,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>155.4504749272583</v>
+        <v>44.5329991677731</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25151,13 +25151,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25211,13 +25211,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W35" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,19 +25230,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -25251,10 +25251,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,19 +25278,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>222.1596009199092</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25299,7 +25299,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>197.8455930419602</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25318,7 +25318,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25363,7 +25363,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25388,16 +25388,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>170.4484560200386</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>352.8735455476468</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25409,7 +25409,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25524,13 +25524,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>146.95659991356</v>
+        <v>21.17305198522826</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25588,7 +25588,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
         <v>86.16204325169439</v>
@@ -25597,7 +25597,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>93.55107118671071</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25606,7 +25606,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>153.713404487346</v>
       </c>
       <c r="C41" t="n">
         <v>136.2524545948729</v>
@@ -25634,7 +25634,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>152.9099328961272</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25643,7 +25643,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>137.7536010510279</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25685,16 +25685,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>98.7318212940003</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>178.0005988282745</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>157.217501479919</v>
       </c>
     </row>
     <row r="42">
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25728,7 +25728,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,28 +25752,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>167.0476436387604</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>3.780149973290662</v>
       </c>
       <c r="W42" t="n">
-        <v>22.674545984785</v>
+        <v>237.7617116382995</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25792,7 +25792,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25831,7 +25831,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25877,7 +25877,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>387.7127122548189</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25910,10 +25910,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T44" t="n">
         <v>208.7852545293897</v>
@@ -25928,7 +25928,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>342.1410754181529</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25953,13 +25953,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>117.4791871330677</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>109.7534919028945</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>84.64541897618032</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -25998,13 +25998,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>201.6400878316884</v>
       </c>
       <c r="V45" t="n">
-        <v>208.4992929001388</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.2419549216212</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>144.7980617381184</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>121.0254477578962</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>117.8310227626151</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>140.4009540981426</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>127.8604496669421</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26083,7 +26083,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>258.9329730762748</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>345919.9803105746</v>
+        <v>345919.9803105745</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>345919.9803105745</v>
+        <v>345919.9803105746</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>345919.9803105748</v>
+        <v>345919.9803105746</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>355290.5609397932</v>
+        <v>355290.5609397931</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490077.4722130717</v>
+        <v>490077.4722130718</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69180.83107499292</v>
+        <v>69180.83107499291</v>
       </c>
       <c r="C2" t="n">
         <v>69180.83107499292</v>
       </c>
       <c r="D2" t="n">
+        <v>69180.83107499294</v>
+      </c>
+      <c r="E2" t="n">
         <v>69180.83107499292</v>
-      </c>
-      <c r="E2" t="n">
-        <v>69180.83107499294</v>
       </c>
       <c r="F2" t="n">
         <v>69180.83107499292</v>
       </c>
       <c r="G2" t="n">
-        <v>71053.67965375919</v>
+        <v>71053.67965375917</v>
       </c>
       <c r="H2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="I2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="J2" t="n">
-        <v>99696.40351879933</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="K2" t="n">
-        <v>99696.40351879933</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="L2" t="n">
         <v>99696.40351879939</v>
       </c>
       <c r="M2" t="n">
-        <v>99696.40351879933</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="N2" t="n">
         <v>99696.4035187994</v>
       </c>
       <c r="O2" t="n">
-        <v>97992.82944639149</v>
+        <v>97992.82944639152</v>
       </c>
       <c r="P2" t="n">
-        <v>69180.83107499294</v>
+        <v>69180.83107499292</v>
       </c>
     </row>
     <row r="3">
@@ -26427,7 +26427,7 @@
         <v>13543.27151380256</v>
       </c>
       <c r="F4" t="n">
-        <v>13543.27151380256</v>
+        <v>13543.27151380257</v>
       </c>
       <c r="G4" t="n">
         <v>13925.73993505492</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11086.43399005021</v>
+        <v>11086.43399005019</v>
       </c>
       <c r="C6" t="n">
-        <v>20332.48602536313</v>
+        <v>20332.48602536314</v>
       </c>
       <c r="D6" t="n">
-        <v>20332.48602536313</v>
+        <v>20332.48602536315</v>
       </c>
       <c r="E6" t="n">
-        <v>53960.08602536315</v>
+        <v>53960.08602536314</v>
       </c>
       <c r="F6" t="n">
-        <v>53960.08602536313</v>
+        <v>53960.08602536314</v>
       </c>
       <c r="G6" t="n">
-        <v>51433.90515581202</v>
+        <v>51433.90515581201</v>
       </c>
       <c r="H6" t="n">
-        <v>10919.91186100965</v>
+        <v>10919.91186100963</v>
       </c>
       <c r="I6" t="n">
         <v>65267.64986960472</v>
       </c>
       <c r="J6" t="n">
-        <v>58048.88530039453</v>
+        <v>58048.88530039456</v>
       </c>
       <c r="K6" t="n">
-        <v>65267.64986960468</v>
+        <v>65267.64986960475</v>
       </c>
       <c r="L6" t="n">
         <v>65267.64986960473</v>
       </c>
       <c r="M6" t="n">
-        <v>65267.64986960468</v>
+        <v>65267.64986960472</v>
       </c>
       <c r="N6" t="n">
         <v>65267.64986960475</v>
       </c>
       <c r="O6" t="n">
-        <v>64641.20158841681</v>
+        <v>64641.20158841684</v>
       </c>
       <c r="P6" t="n">
-        <v>53960.08602536315</v>
+        <v>53960.08602536314</v>
       </c>
     </row>
   </sheetData>
@@ -34778,19 +34778,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>26.47527676494984</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>27.59002526031614</v>
@@ -34936,19 +34936,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>26.47527676494984</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
       <c r="O5" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>27.59002526031614</v>
@@ -35015,19 +35015,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>26.47527676494984</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35173,16 +35173,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="M8" t="n">
-        <v>26.47527676494983</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>26.47527676494984</v>
-      </c>
-      <c r="M9" t="n">
-        <v>27.59002526031614</v>
       </c>
       <c r="N9" t="n">
         <v>27.59002526031614</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L11" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="N11" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
       <c r="P11" t="n">
-        <v>27.59002526031614</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M12" t="n">
-        <v>26.47527676494984</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="O12" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="P12" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>26.47527676494984</v>
+      </c>
+      <c r="N14" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="L14" t="n">
+      <c r="O14" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="M14" t="n">
+      <c r="P14" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="N14" t="n">
-        <v>26.47527676494983</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L15" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="M15" t="n">
-        <v>26.47527676494984</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="P15" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="L17" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="N17" t="n">
-        <v>37.98452839772582</v>
-      </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P17" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L18" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q18" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36437,10 +36437,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
@@ -36449,13 +36449,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36683,10 +36683,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>99.8112771299739</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36917,16 +36917,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37075,7 +37075,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37157,16 +37157,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37394,13 +37394,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37552,7 +37552,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37625,19 +37625,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37862,13 +37862,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>35.27872495351209</v>
       </c>
       <c r="M42" t="n">
         <v>229.0204371761346</v>
       </c>
       <c r="N42" t="n">
-        <v>194.2036484798192</v>
+        <v>229.0204371761346</v>
       </c>
       <c r="O42" t="n">
         <v>229.0204371761346</v>
@@ -37877,7 +37877,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>27.59002526031614</v>
@@ -38032,7 +38032,7 @@
         <v>26.47527676494983</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M45" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_12.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>356678.6446041708</v>
+        <v>376293.3082743287</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2740177.930556145</v>
+        <v>2629876.587221766</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20105680.36839639</v>
+        <v>19997574.02179435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4847408.833153757</v>
+        <v>4902171.467891437</v>
       </c>
     </row>
     <row r="11">
@@ -704,16 +704,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S2" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T2" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U2" t="n">
-        <v>14.31059503474164</v>
+        <v>24.87477961344436</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -741,10 +741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E3" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,13 +753,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>25.04785205983618</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>27.59002526031614</v>
+        <v>24.5704967621155</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -859,7 +859,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>22.91618947337665</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,16 +938,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>14.31059503474164</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C6" t="n">
-        <v>24.30129424928645</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="D6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="7">
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.04785205983618</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1096,16 +1096,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>24.5704967621155</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,25 +1209,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="10">
@@ -1306,16 +1306,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>25.04785205983618</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,16 +1330,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1379,19 +1379,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>12.92549025883184</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,19 +1412,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1494,22 +1494,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="U12" t="n">
-        <v>24.30129424928645</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W12" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1546,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>22.44875936050941</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J13" t="n">
-        <v>27.59002526031614</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U14" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="15">
@@ -1686,28 +1686,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F15" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1786,10 +1786,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>24.5704967621155</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1807,16 +1807,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R16" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S16" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>19.72731862540289</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1886,19 +1886,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S17" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T17" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U17" t="n">
-        <v>24.87477961344436</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1929,19 +1929,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2005,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E19" t="n">
-        <v>9.977552361264268</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2044,22 +2044,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G20" t="n">
         <v>241.0142888776591</v>
@@ -2102,7 +2102,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>1.809496073036188</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2166,10 +2166,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>70.69572208711297</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2208,10 +2208,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>44.08176337665912</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>40.47627913313511</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2360,13 +2360,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2448,13 +2448,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>209.7723503089189</v>
+        <v>121.8430658505936</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
@@ -2518,13 +2518,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2561,17 +2561,17 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>212.2853856434421</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>49.31110394229523</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,16 +2682,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>62.43486741948629</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2700,7 +2700,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>241.0142888776591</v>
@@ -2858,7 +2858,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2874,10 +2874,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>95.23425580603923</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2934,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>85.31372784089217</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -3004,13 +3004,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>241.0142888776591</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3156,25 +3156,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>181.9538569390774</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
         <v>241.0142888776591</v>
@@ -3357,13 +3357,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -3402,10 +3402,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>10.64098622951609</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>1.809496073036188</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -3642,10 +3642,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>230.5219311756913</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>89.66547645067541</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>229.0204371761346</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>229.0204371761346</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3782,31 +3782,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>208.2792470398066</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>191.7305018501946</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="Y41" t="n">
-        <v>229.0204371761346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>70.20789917735027</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3876,16 +3876,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>229.0204371761346</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>13.93327152262012</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3977,10 +3977,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,22 +4022,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>14.31059503474164</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>24.87477961344436</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4068,16 +4068,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,13 +4110,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="C46" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4195,13 +4195,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M2" t="n">
-        <v>28.41772601812563</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N2" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O2" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P2" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q2" t="n">
-        <v>100.2684856730375</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R2" t="n">
-        <v>72.39977328887976</v>
+        <v>108.260178376266</v>
       </c>
       <c r="S2" t="n">
-        <v>44.53106090472204</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="T2" t="n">
-        <v>16.66234852056432</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="U2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.62267627294912</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="C3" t="n">
-        <v>54.62267627294912</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="D3" t="n">
-        <v>26.7539638887914</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="E3" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="F3" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="G3" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="H3" t="n">
-        <v>2.207202020825291</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="I3" t="n">
-        <v>2.207202020825291</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J3" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K3" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L3" t="n">
-        <v>2.207202020825291</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M3" t="n">
-        <v>29.52132702853827</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N3" t="n">
-        <v>29.52132702853827</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O3" t="n">
-        <v>55.73185102583861</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P3" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W3" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X3" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y3" t="n">
-        <v>54.62267627294912</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>105.7399236434024</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="C4" t="n">
-        <v>105.7399236434024</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="D4" t="n">
-        <v>105.7399236434024</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="E4" t="n">
-        <v>105.7399236434024</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="F4" t="n">
-        <v>105.7399236434024</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="G4" t="n">
-        <v>105.7399236434024</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="H4" t="n">
-        <v>80.43906297690118</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="I4" t="n">
-        <v>52.57035059274347</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="J4" t="n">
-        <v>24.70163820858575</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K4" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L4" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M4" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N4" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O4" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P4" t="n">
-        <v>105.7399236434024</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q4" t="n">
-        <v>105.7399236434024</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="R4" t="n">
-        <v>105.7399236434024</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="S4" t="n">
-        <v>105.7399236434024</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="T4" t="n">
-        <v>105.7399236434024</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="U4" t="n">
-        <v>105.7399236434024</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="V4" t="n">
-        <v>105.7399236434024</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="W4" t="n">
-        <v>105.7399236434024</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="X4" t="n">
-        <v>105.7399236434024</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="Y4" t="n">
-        <v>105.7399236434024</v>
+        <v>90.46354404567346</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="C5" t="n">
-        <v>2.207202020825291</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="D5" t="n">
-        <v>2.207202020825291</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="E5" t="n">
-        <v>2.207202020825291</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="F5" t="n">
-        <v>2.207202020825291</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="G5" t="n">
-        <v>2.207202020825291</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="H5" t="n">
-        <v>2.207202020825291</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="I5" t="n">
-        <v>2.207202020825291</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="J5" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K5" t="n">
-        <v>28.41772601812563</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L5" t="n">
-        <v>28.41772601812563</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M5" t="n">
-        <v>55.73185102583861</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N5" t="n">
-        <v>83.04597603355158</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="O5" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P5" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q5" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R5" t="n">
-        <v>72.39977328887976</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S5" t="n">
-        <v>44.53106090472204</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T5" t="n">
-        <v>30.07591440498301</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U5" t="n">
-        <v>30.07591440498301</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V5" t="n">
-        <v>30.07591440498301</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W5" t="n">
-        <v>30.07591440498301</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X5" t="n">
-        <v>30.07591440498301</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y5" t="n">
-        <v>30.07591440498301</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82.49138865710684</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="C6" t="n">
-        <v>57.94462678914073</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D6" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E6" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F6" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G6" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H6" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I6" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J6" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K6" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L6" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M6" t="n">
-        <v>29.52132702853827</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N6" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O6" t="n">
-        <v>83.04597603355158</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P6" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q6" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R6" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S6" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T6" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U6" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V6" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W6" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X6" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y6" t="n">
-        <v>110.3601010412646</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>105.7399236434024</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="C7" t="n">
-        <v>105.7399236434024</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="D7" t="n">
-        <v>105.7399236434024</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="E7" t="n">
-        <v>105.7399236434024</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="F7" t="n">
-        <v>80.43906297690118</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="G7" t="n">
-        <v>80.43906297690118</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="H7" t="n">
-        <v>80.43906297690118</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="I7" t="n">
-        <v>52.57035059274347</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="J7" t="n">
-        <v>24.70163820858575</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K7" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L7" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M7" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N7" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P7" t="n">
-        <v>105.7399236434024</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q7" t="n">
-        <v>105.7399236434024</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="R7" t="n">
-        <v>105.7399236434024</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="S7" t="n">
-        <v>105.7399236434024</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="T7" t="n">
-        <v>105.7399236434024</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="U7" t="n">
-        <v>105.7399236434024</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="V7" t="n">
-        <v>105.7399236434024</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="W7" t="n">
-        <v>105.7399236434024</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="X7" t="n">
-        <v>105.7399236434024</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="Y7" t="n">
-        <v>105.7399236434024</v>
+        <v>25.66114634470771</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L8" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M8" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N8" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O8" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P8" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q8" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R8" t="n">
-        <v>110.3601010412646</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="S8" t="n">
-        <v>110.3601010412646</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="T8" t="n">
-        <v>110.3601010412646</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="U8" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V8" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W8" t="n">
-        <v>85.81333917329844</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X8" t="n">
-        <v>57.94462678914073</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y8" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>85.81333917329844</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="C9" t="n">
-        <v>57.94462678914073</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="D9" t="n">
-        <v>30.07591440498301</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="E9" t="n">
-        <v>2.207202020825291</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="F9" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="G9" t="n">
-        <v>2.207202020825291</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="H9" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I9" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J9" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K9" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L9" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M9" t="n">
-        <v>28.41772601812563</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N9" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O9" t="n">
-        <v>55.73185102583861</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P9" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y9" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>105.7399236434024</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C10" t="n">
-        <v>105.7399236434024</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D10" t="n">
-        <v>105.7399236434024</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E10" t="n">
-        <v>105.7399236434024</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F10" t="n">
-        <v>105.7399236434024</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G10" t="n">
-        <v>105.7399236434024</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H10" t="n">
-        <v>80.43906297690118</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I10" t="n">
-        <v>52.57035059274347</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="J10" t="n">
-        <v>24.70163820858575</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K10" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L10" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M10" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N10" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P10" t="n">
-        <v>105.7399236434024</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q10" t="n">
-        <v>105.7399236434024</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="R10" t="n">
-        <v>105.7399236434024</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="S10" t="n">
-        <v>105.7399236434024</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="T10" t="n">
-        <v>105.7399236434024</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="U10" t="n">
-        <v>105.7399236434024</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="V10" t="n">
-        <v>105.7399236434024</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W10" t="n">
-        <v>105.7399236434024</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X10" t="n">
-        <v>105.7399236434024</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y10" t="n">
-        <v>105.7399236434024</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.207202020825291</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="C11" t="n">
-        <v>2.207202020825291</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="D11" t="n">
-        <v>2.207202020825291</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="E11" t="n">
-        <v>2.207202020825291</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="F11" t="n">
-        <v>2.207202020825291</v>
+        <v>135.1878417126385</v>
       </c>
       <c r="G11" t="n">
-        <v>2.207202020825291</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="H11" t="n">
-        <v>2.207202020825291</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="I11" t="n">
-        <v>2.207202020825291</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="J11" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K11" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L11" t="n">
-        <v>56.83545203625125</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M11" t="n">
-        <v>56.83545203625125</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N11" t="n">
-        <v>56.83545203625125</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O11" t="n">
-        <v>84.14957704396423</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P11" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q11" t="n">
-        <v>110.3601010412646</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R11" t="n">
-        <v>82.49138865710684</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="S11" t="n">
-        <v>54.62267627294912</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="T11" t="n">
-        <v>26.7539638887914</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="U11" t="n">
-        <v>2.207202020825291</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="V11" t="n">
-        <v>2.207202020825291</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="W11" t="n">
-        <v>2.207202020825291</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="X11" t="n">
-        <v>2.207202020825291</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.207202020825291</v>
+        <v>148.2438924791353</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K12" t="n">
-        <v>29.52132702853827</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L12" t="n">
-        <v>56.83545203625125</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M12" t="n">
-        <v>83.04597603355158</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N12" t="n">
-        <v>83.04597603355158</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O12" t="n">
-        <v>83.04597603355158</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P12" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R12" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S12" t="n">
-        <v>54.62267627294912</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T12" t="n">
-        <v>54.62267627294912</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U12" t="n">
-        <v>30.07591440498301</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V12" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>80.62014129470579</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="C13" t="n">
-        <v>52.75142891054807</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="D13" t="n">
-        <v>52.75142891054807</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="E13" t="n">
-        <v>52.75142891054807</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="F13" t="n">
-        <v>52.75142891054807</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="G13" t="n">
-        <v>52.75142891054807</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="H13" t="n">
-        <v>52.75142891054807</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="I13" t="n">
-        <v>30.07591440498301</v>
+        <v>13.245045875396</v>
       </c>
       <c r="J13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L13" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M13" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N13" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O13" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P13" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q13" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R13" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S13" t="n">
-        <v>80.62014129470579</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T13" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="U13" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="V13" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="W13" t="n">
-        <v>80.62014129470579</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="X13" t="n">
-        <v>80.62014129470579</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="Y13" t="n">
-        <v>80.62014129470579</v>
+        <v>53.22875997826529</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.207202020825291</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="C14" t="n">
-        <v>2.207202020825291</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="D14" t="n">
-        <v>2.207202020825291</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="E14" t="n">
-        <v>2.207202020825291</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="F14" t="n">
-        <v>2.207202020825291</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="G14" t="n">
-        <v>2.207202020825291</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="H14" t="n">
-        <v>2.207202020825291</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="I14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L14" t="n">
-        <v>2.207202020825291</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M14" t="n">
-        <v>28.41772601812563</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N14" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O14" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P14" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q14" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R14" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S14" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T14" t="n">
-        <v>54.62267627294912</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U14" t="n">
-        <v>26.7539638887914</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V14" t="n">
-        <v>2.207202020825291</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W14" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X14" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.207202020825291</v>
+        <v>38.38436553875449</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C15" t="n">
-        <v>85.81333917329844</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D15" t="n">
-        <v>57.94462678914073</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E15" t="n">
-        <v>30.07591440498301</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="F15" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="G15" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="H15" t="n">
-        <v>2.207202020825291</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="I15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K15" t="n">
-        <v>29.52132702853827</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L15" t="n">
-        <v>56.83545203625125</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M15" t="n">
-        <v>83.04597603355158</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N15" t="n">
-        <v>83.04597603355158</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O15" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P15" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R15" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S15" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T15" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U15" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V15" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W15" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X15" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y15" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.207202020825291</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="C16" t="n">
-        <v>2.207202020825291</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="D16" t="n">
-        <v>2.207202020825291</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="E16" t="n">
-        <v>2.207202020825291</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="F16" t="n">
-        <v>2.207202020825291</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="G16" t="n">
-        <v>2.207202020825291</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="H16" t="n">
-        <v>2.207202020825291</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="I16" t="n">
-        <v>2.207202020825291</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="J16" t="n">
-        <v>2.207202020825291</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K16" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L16" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M16" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N16" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O16" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P16" t="n">
-        <v>105.7399236434024</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.87121125924466</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="R16" t="n">
-        <v>50.00249887508694</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="S16" t="n">
-        <v>22.13378649092923</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="T16" t="n">
-        <v>2.207202020825291</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="U16" t="n">
-        <v>2.207202020825291</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="V16" t="n">
-        <v>2.207202020825291</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="W16" t="n">
-        <v>2.207202020825291</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="X16" t="n">
-        <v>2.207202020825291</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.207202020825291</v>
+        <v>50.47982994280417</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K17" t="n">
-        <v>40.77139327069581</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L17" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M17" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N17" t="n">
-        <v>119.1474696551402</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O17" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P17" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q17" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R17" t="n">
-        <v>108.260178376266</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S17" t="n">
-        <v>68.2764642733967</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T17" t="n">
-        <v>28.29275017052741</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C18" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D18" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E18" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="F18" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="G18" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H18" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I18" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J18" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K18" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L18" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M18" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N18" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O18" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P18" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S18" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T18" t="n">
-        <v>38.38436553875449</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U18" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V18" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W18" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X18" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13.245045875396</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C19" t="n">
-        <v>13.245045875396</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D19" t="n">
-        <v>13.245045875396</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L19" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M19" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N19" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O19" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P19" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q19" t="n">
-        <v>93.21247408113457</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R19" t="n">
-        <v>53.22875997826529</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S19" t="n">
-        <v>13.245045875396</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T19" t="n">
-        <v>13.245045875396</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U19" t="n">
-        <v>13.245045875396</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V19" t="n">
-        <v>13.245045875396</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W19" t="n">
-        <v>13.245045875396</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X19" t="n">
-        <v>13.245045875396</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.245045875396</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="20">
@@ -5738,16 +5738,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="F20" t="n">
-        <v>720.6083788665362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G20" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H20" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I20" t="n">
-        <v>21.10891692136039</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>411.6785506544679</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
-        <v>237.2255213733409</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>237.2255213733409</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
         <v>19.28114311021272</v>
@@ -5832,22 +5832,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5856,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>644.9432478003937</v>
       </c>
       <c r="U21" t="n">
-        <v>862.8876260635219</v>
+        <v>644.9432478003937</v>
       </c>
       <c r="V21" t="n">
-        <v>862.8876260635219</v>
+        <v>644.9432478003937</v>
       </c>
       <c r="W21" t="n">
-        <v>619.4388494194218</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="X21" t="n">
-        <v>619.4388494194218</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y21" t="n">
-        <v>411.6785506544679</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="22">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>72.23626279480629</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C23" t="n">
-        <v>72.23626279480629</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D23" t="n">
-        <v>72.23626279480629</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E23" t="n">
         <v>31.35113235729608</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>802.5825927271064</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T23" t="n">
-        <v>802.5825927271064</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U23" t="n">
-        <v>559.1338160830064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V23" t="n">
-        <v>315.6850394389064</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W23" t="n">
-        <v>72.23626279480629</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X23" t="n">
-        <v>72.23626279480629</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y23" t="n">
-        <v>72.23626279480629</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6072,19 +6072,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6096,22 +6096,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V24" t="n">
-        <v>752.1658925723343</v>
+        <v>638.7967569799137</v>
       </c>
       <c r="W24" t="n">
-        <v>508.7171159282343</v>
+        <v>395.3479803358136</v>
       </c>
       <c r="X24" t="n">
-        <v>300.8656157227014</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y24" t="n">
-        <v>300.8656157227014</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="25">
@@ -6166,10 +6166,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
         <v>19.28114311021272</v>
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="C26" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="D26" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="E26" t="n">
         <v>477.1596022224361</v>
       </c>
-      <c r="C26" t="n">
+      <c r="F26" t="n">
         <v>477.1596022224361</v>
       </c>
-      <c r="D26" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="G26" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="F26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="G26" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6260,16 +6260,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W26" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X26" t="n">
         <v>720.6083788665362</v>
       </c>
-      <c r="W26" t="n">
+      <c r="Y26" t="n">
         <v>720.6083788665362</v>
-      </c>
-      <c r="X26" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,13 +6309,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>900.9916328646905</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>698.8050382234566</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="V27" t="n">
-        <v>728.9050472788936</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W27" t="n">
-        <v>485.4562706347935</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X27" t="n">
-        <v>277.6047704292607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6494,19 +6494,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>284.0338015341832</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C30" t="n">
-        <v>109.5807722530562</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D30" t="n">
-        <v>109.5807722530562</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E30" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6546,13 +6546,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O30" t="n">
         <v>894.6625969973069</v>
@@ -6564,28 +6564,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>867.860937524738</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>867.860937524738</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>867.860937524738</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>867.860937524738</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>867.860937524738</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>867.860937524738</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X30" t="n">
-        <v>660.0094373192052</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="Y30" t="n">
-        <v>452.2491385542513</v>
+        <v>670.1213740781145</v>
       </c>
     </row>
     <row r="31">
@@ -6652,10 +6652,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="33">
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O33" t="n">
         <v>894.6625969973069</v>
@@ -6804,25 +6804,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V33" t="n">
-        <v>679.0958513775852</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W33" t="n">
-        <v>435.6470747334852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X33" t="n">
-        <v>227.7955745279523</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6971,16 +6971,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>248.3115976704407</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C36" t="n">
-        <v>248.3115976704407</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D36" t="n">
-        <v>248.3115976704407</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="E36" t="n">
-        <v>248.3115976704407</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="F36" t="n">
-        <v>248.3115976704407</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="G36" t="n">
-        <v>109.5807722530562</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5807722530562</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7017,49 +7017,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>259.0600686093459</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V36" t="n">
-        <v>248.3115976704407</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W36" t="n">
-        <v>248.3115976704407</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X36" t="n">
-        <v>248.3115976704407</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y36" t="n">
-        <v>248.3115976704407</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="37">
@@ -7154,19 +7154,19 @@
         <v>233.7108255783361</v>
       </c>
       <c r="D38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7254,43 +7254,43 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V39" t="n">
-        <v>252.1315786412141</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="X39" t="n">
         <v>19.28114311021272</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>249.6554098994793</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="C41" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="D41" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="E41" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="F41" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="G41" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H41" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I41" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J41" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K41" t="n">
-        <v>74.32074221503734</v>
+        <v>121.932285387744</v>
       </c>
       <c r="L41" t="n">
-        <v>254.3965937996959</v>
+        <v>302.0081369724026</v>
       </c>
       <c r="M41" t="n">
-        <v>471.3722210626001</v>
+        <v>518.9837642353068</v>
       </c>
       <c r="N41" t="n">
-        <v>677.2267432698394</v>
+        <v>724.8382864425462</v>
       </c>
       <c r="O41" t="n">
-        <v>826.4216934124875</v>
+        <v>874.0332365851942</v>
       </c>
       <c r="P41" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="Q41" t="n">
-        <v>905.9901333363114</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="R41" t="n">
-        <v>905.9901333363114</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="S41" t="n">
-        <v>905.9901333363114</v>
+        <v>735.4808960230977</v>
       </c>
       <c r="T41" t="n">
-        <v>905.9901333363114</v>
+        <v>735.4808960230977</v>
       </c>
       <c r="U41" t="n">
-        <v>905.9901333363114</v>
+        <v>496.626357174339</v>
       </c>
       <c r="V41" t="n">
-        <v>905.9901333363114</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="W41" t="n">
-        <v>905.9901333363114</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="X41" t="n">
-        <v>712.3229597502562</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="Y41" t="n">
-        <v>480.9891848248677</v>
+        <v>18.91727947682168</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>193.5287969080035</v>
+        <v>90.58848200571879</v>
       </c>
       <c r="C42" t="n">
-        <v>19.07576762687648</v>
+        <v>90.58848200571879</v>
       </c>
       <c r="D42" t="n">
-        <v>19.07576762687648</v>
+        <v>90.58848200571879</v>
       </c>
       <c r="E42" t="n">
-        <v>19.07576762687648</v>
+        <v>90.58848200571879</v>
       </c>
       <c r="F42" t="n">
-        <v>19.07576762687648</v>
+        <v>90.58848200571879</v>
       </c>
       <c r="G42" t="n">
-        <v>19.07576762687648</v>
+        <v>90.58848200571879</v>
       </c>
       <c r="H42" t="n">
-        <v>19.07576762687648</v>
+        <v>90.58848200571879</v>
       </c>
       <c r="I42" t="n">
-        <v>19.07576762687648</v>
+        <v>19.6714121296074</v>
       </c>
       <c r="J42" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K42" t="n">
-        <v>18.32163497409077</v>
+        <v>144.2748395346591</v>
       </c>
       <c r="L42" t="n">
-        <v>53.24757267806774</v>
+        <v>374.2379454030082</v>
       </c>
       <c r="M42" t="n">
-        <v>279.977805482441</v>
+        <v>529.119162702065</v>
       </c>
       <c r="N42" t="n">
-        <v>506.7080382868143</v>
+        <v>529.119162702065</v>
       </c>
       <c r="O42" t="n">
-        <v>733.4382710911875</v>
+        <v>763.2204962277333</v>
       </c>
       <c r="P42" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="Q42" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="R42" t="n">
-        <v>814.9122192574241</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="S42" t="n">
-        <v>814.9122192574241</v>
+        <v>772.4466292917531</v>
       </c>
       <c r="T42" t="n">
-        <v>814.9122192574241</v>
+        <v>772.4466292917531</v>
       </c>
       <c r="U42" t="n">
-        <v>814.9122192574241</v>
+        <v>772.4466292917531</v>
       </c>
       <c r="V42" t="n">
-        <v>583.5784443320356</v>
+        <v>537.2945210600103</v>
       </c>
       <c r="W42" t="n">
-        <v>569.5044326930254</v>
+        <v>298.4399822112516</v>
       </c>
       <c r="X42" t="n">
-        <v>569.5044326930254</v>
+        <v>90.58848200571879</v>
       </c>
       <c r="Y42" t="n">
-        <v>361.7441339280715</v>
+        <v>90.58848200571879</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="C43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="D43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="E43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="F43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="G43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="L43" t="n">
-        <v>45.63575998180374</v>
+        <v>46.23140448453466</v>
       </c>
       <c r="M43" t="n">
-        <v>84.82379817402592</v>
+        <v>85.41944267675684</v>
       </c>
       <c r="N43" t="n">
-        <v>128.5146488294622</v>
+        <v>129.1102933321932</v>
       </c>
       <c r="O43" t="n">
-        <v>152.8539254643615</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="P43" t="n">
-        <v>152.8539254643615</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.8539254643615</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="R43" t="n">
-        <v>18.32163497409077</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="S43" t="n">
-        <v>18.32163497409077</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="T43" t="n">
-        <v>18.32163497409077</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="U43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="V43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="W43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="X43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.207202020825291</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="C44" t="n">
-        <v>2.207202020825291</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="D44" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E44" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F44" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G44" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H44" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I44" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J44" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K44" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L44" t="n">
-        <v>2.207202020825291</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M44" t="n">
-        <v>29.52132702853827</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N44" t="n">
-        <v>56.83545203625125</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O44" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P44" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q44" t="n">
-        <v>100.2684856730375</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R44" t="n">
-        <v>72.39977328887976</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="S44" t="n">
-        <v>44.53106090472204</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="T44" t="n">
-        <v>30.07591440498301</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="U44" t="n">
-        <v>2.207202020825291</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="V44" t="n">
-        <v>2.207202020825291</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="W44" t="n">
-        <v>2.207202020825291</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="X44" t="n">
-        <v>2.207202020825291</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="Y44" t="n">
-        <v>2.207202020825291</v>
+        <v>123.1178524655551</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.207202020825291</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="C45" t="n">
-        <v>2.207202020825291</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="D45" t="n">
-        <v>2.207202020825291</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="E45" t="n">
-        <v>2.207202020825291</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="F45" t="n">
-        <v>2.207202020825291</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="G45" t="n">
-        <v>2.207202020825291</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="H45" t="n">
-        <v>2.207202020825291</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="I45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K45" t="n">
-        <v>29.52132702853827</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L45" t="n">
-        <v>56.83545203625125</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M45" t="n">
-        <v>84.14957704396423</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N45" t="n">
-        <v>110.3601010412646</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="O45" t="n">
-        <v>110.3601010412646</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P45" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R45" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S45" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T45" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U45" t="n">
-        <v>57.94462678914073</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V45" t="n">
-        <v>30.07591440498301</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W45" t="n">
-        <v>2.207202020825291</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X45" t="n">
-        <v>2.207202020825291</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y45" t="n">
-        <v>2.207202020825291</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>108.4888536788635</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C46" t="n">
-        <v>85.81333917329844</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D46" t="n">
-        <v>57.94462678914073</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E46" t="n">
-        <v>57.94462678914073</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F46" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L46" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M46" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N46" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O46" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P46" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q46" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R46" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S46" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T46" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U46" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V46" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W46" t="n">
-        <v>108.4888536788635</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="X46" t="n">
-        <v>108.4888536788635</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="Y46" t="n">
-        <v>108.4888536788635</v>
+        <v>13.245045875396</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7985,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>256.8215099922226</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N2" t="n">
-        <v>257.0030888569071</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O2" t="n">
-        <v>257.6882366820029</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P2" t="n">
-        <v>258.8230210155857</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,22 +8061,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>176.5389081776</v>
       </c>
       <c r="M3" t="n">
-        <v>169.7240591823345</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>169.0715212093943</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P3" t="n">
-        <v>161.5644326746464</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q3" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8143,10 +8143,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>246.5651278099304</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M5" t="n">
-        <v>257.9362584875889</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>257.0030888569071</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>268.0827398194126</v>
       </c>
       <c r="P5" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8301,19 +8301,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>169.7240591823345</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N6" t="n">
-        <v>157.8169888482831</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O6" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q6" t="n">
-        <v>167.5717993463377</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8380,10 +8380,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8456,19 +8456,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>263.3564402303034</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M8" t="n">
-        <v>256.8215099922226</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N8" t="n">
-        <v>257.0030888569071</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O8" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>258.8230210155857</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8538,19 +8538,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>168.6093106869682</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N9" t="n">
-        <v>158.9317373436494</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P9" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>167.5717993463377</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8617,10 +8617,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>247.6798763052967</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L11" t="n">
-        <v>263.3564402303034</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>257.6882366820029</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P11" t="n">
-        <v>257.7082725202194</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,13 +8769,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>165.4314642346751</v>
+        <v>175.8259673720848</v>
       </c>
       <c r="L12" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>168.6093106869681</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
@@ -8784,10 +8784,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q12" t="n">
-        <v>167.5717993463377</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8854,10 +8854,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M13" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8930,19 +8930,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M14" t="n">
-        <v>256.8215099922226</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
-        <v>257.0030888569071</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O14" t="n">
-        <v>257.6882366820029</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P14" t="n">
-        <v>258.8230210155857</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>168.6093106869681</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.5717993463377</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9091,10 +9091,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M16" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,19 +9164,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>258.0743794427063</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N17" t="n">
-        <v>268.9969405584315</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O17" t="n">
-        <v>269.6820883835273</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P17" t="n">
         <v>231.2329957552695</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>177.4253159361996</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -9252,13 +9252,13 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>169.3262404810591</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O18" t="n">
-        <v>182.180121406285</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P18" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9331,7 +9331,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N19" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O19" t="n">
         <v>163.0416663658825</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,16 +9489,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O21" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,22 +9720,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9966,7 +9966,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10203,7 +10203,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10440,7 +10440,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10677,13 +10677,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>303.312501347746</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10917,10 +10917,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>276.6546058338155</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>303.7892960137443</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,19 +11139,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>173.8331047333863</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>371.154471098153</v>
+        <v>298.5797079614696</v>
       </c>
       <c r="N42" t="n">
-        <v>360.3621492594679</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>371.616681620579</v>
+        <v>379.0622379047155</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11297,22 +11297,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M44" t="n">
-        <v>257.9362584875889</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N44" t="n">
-        <v>257.0030888569071</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O44" t="n">
-        <v>256.5734881866366</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P44" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>165.4314642346751</v>
+        <v>175.8259673720848</v>
       </c>
       <c r="L45" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>169.7240591823345</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>157.8169888482831</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11461,10 +11461,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M46" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22592,16 +22592,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>122.2790926808335</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S2" t="n">
-        <v>181.4300443259292</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T2" t="n">
-        <v>195.5058243038152</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U2" t="n">
-        <v>237.0350578730948</v>
+        <v>226.4708732943921</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22629,10 +22629,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>119.8550403043226</v>
+        <v>107.8611886027982</v>
       </c>
       <c r="E3" t="n">
-        <v>133.3437862061145</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22641,13 +22641,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>78.11655673476514</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>49.81275588957449</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22686,13 +22686,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X3" t="n">
-        <v>178.1829599431613</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>178.0926705169882</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22720,13 +22720,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>137.1793204476034</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>127.8604496669421</v>
+        <v>130.8799781651428</v>
       </c>
       <c r="J4" t="n">
-        <v>65.76915485635664</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22781,13 +22781,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>355.1438164031645</v>
+        <v>343.14996470164</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>325.689014809167</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>331.7668521473063</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22805,7 +22805,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,16 +22826,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>122.2790926808335</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>181.4300443259292</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>208.7852545293897</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22850,7 +22850,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="6">
@@ -22860,16 +22860,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138.9431583895512</v>
+        <v>126.9493066880268</v>
       </c>
       <c r="C6" t="n">
-        <v>148.4072047390293</v>
+        <v>137.8430201603266</v>
       </c>
       <c r="D6" t="n">
-        <v>119.8550403043226</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>130.0550551950848</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22917,7 +22917,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22929,7 +22929,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="7">
@@ -22951,7 +22951,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>120.3731959630951</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -22960,10 +22960,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>127.8604496669421</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>65.76915485635664</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,16 +22984,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>203.375092666166</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23018,7 +23018,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>355.1438164031645</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23066,28 +23066,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>115.0036391131605</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>324.9396744681266</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>342.1410754181529</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>358.6479133957374</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23097,25 +23097,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>142.2318894005809</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>145.1184737279996</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>119.8550403043226</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>130.0550551950848</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>105.4853354315433</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>97.75964020137005</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>77.36996540850728</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23166,7 +23166,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="10">
@@ -23194,16 +23194,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>137.1793204476034</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>127.8604496669421</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>65.76915485635664</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,16 +23218,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>76.18449089043011</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23267,19 +23267,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>393.9505554828796</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>375.7188605532945</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>299.8909251539266</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>170.8920126085653</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,19 +23300,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>122.2790926808335</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>181.4300443259292</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>195.5058243038152</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>227.04435865855</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23382,22 +23382,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>144.0931458435217</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>165.2992498668324</v>
       </c>
       <c r="U12" t="n">
-        <v>201.6400878316884</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W12" t="n">
-        <v>224.1049579006035</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>139.6567958383117</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23434,10 +23434,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>133.0017155667489</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J13" t="n">
-        <v>65.76915485635664</v>
+        <v>83.3816277554085</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -23464,10 +23464,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>196.4265727766561</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>188.3617124664409</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23476,7 +23476,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>246.9391213747504</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23513,7 +23513,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>175.6104107424167</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23543,25 +23543,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>181.4300443259292</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>195.5058243038152</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U14" t="n">
-        <v>223.7556276475204</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>303.4509642208484</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="15">
@@ -23574,28 +23574,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>148.4072047390293</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>119.8550403043226</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>130.0550551950848</v>
+        <v>118.0612034935604</v>
       </c>
       <c r="F15" t="n">
-        <v>117.4791871330677</v>
+        <v>105.4853354315433</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>55.27774534968376</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23674,10 +23674,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>68.78868335455728</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,16 +23695,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>58.57201799137825</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R16" t="n">
-        <v>149.7033661168533</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S16" t="n">
-        <v>196.4265727766561</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>208.2182708028786</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23774,19 +23774,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>110.2852409793091</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S17" t="n">
-        <v>169.4361926244048</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T17" t="n">
-        <v>183.5119726022908</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U17" t="n">
-        <v>226.4708732943921</v>
+        <v>212.474035476212</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23817,19 +23817,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>98.47189973158609</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23856,16 +23856,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>191.0759032529857</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23893,10 +23893,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>104.4833006389838</v>
       </c>
       <c r="E19" t="n">
-        <v>136.4564102853049</v>
+        <v>102.3017902673406</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23932,22 +23932,22 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>251.3471928761457</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23978,7 +23978,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G20" t="n">
         <v>174.288448637476</v>
@@ -23990,7 +23990,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>10.13979328157633</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24054,10 +24054,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>86.94935836828797</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24096,10 +24096,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>156.0829653181625</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24212,7 +24212,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>341.4540909391267</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24248,13 +24248,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>8.68397329741569</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24300,7 +24300,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24336,13 +24336,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>23.02823684050639</v>
+        <v>110.9575212988316</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
@@ -24406,13 +24406,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24449,16 +24449,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>169.6449844288197</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24500,7 +24500,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>117.2220797075721</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24543,7 +24543,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,16 +24570,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>109.2483036843515</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24588,7 +24588,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24734,10 +24734,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>108.226679839754</v>
@@ -24746,7 +24746,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24762,10 +24762,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24777,7 +24777,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>4.923578346603904</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24822,7 +24822,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>120.4592573625853</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24892,13 +24892,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24917,7 +24917,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24977,7 +24977,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>128.71681180081</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25044,25 +25044,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>36.26901108812098</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>50.84673021034791</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25211,7 +25211,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>108.226679839754</v>
@@ -25245,13 +25245,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>53.98936737787663</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25278,10 +25278,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25290,10 +25290,10 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>222.1596009199092</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25394,7 +25394,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>352.8735455476468</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25409,7 +25409,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25530,10 +25530,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>21.17305198522826</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>116.1075087528021</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25625,10 +25625,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>153.713404487346</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>136.2524545948729</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25670,31 +25670,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0.7408225464386931</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>14.87965944756544</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>91.28626500986385</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>178.0005988282745</v>
+        <v>133.265107218198</v>
       </c>
       <c r="Y41" t="n">
-        <v>157.217501479919</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25725,7 +25725,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>19.18873367406481</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,10 +25752,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25764,16 +25764,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>3.780149973290662</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>237.7617116382995</v>
+        <v>15.22898970064855</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25831,7 +25831,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25865,10 +25865,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>325.689014809167</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>315.0991646588424</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25880,7 +25880,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>299.8909251539266</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25910,22 +25910,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>122.2790926808335</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>181.4300443259292</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>208.7852545293897</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>223.7556276475204</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>324.3661891039686</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25956,16 +25956,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>103.2246296614793</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>49.81275588957449</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -25998,13 +25998,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>201.6400878316884</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>205.2105618891091</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>224.1049579006035</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26020,22 +26020,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>169.854427820673</v>
       </c>
       <c r="C46" t="n">
-        <v>144.7980617381184</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>121.0254477578962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>117.8310227626151</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>140.4009540981426</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26083,13 +26083,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>246.9391213747504</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>186.1257784271966</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>179.0007763902542</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>345919.9803105745</v>
+        <v>355290.5609397931</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>345919.9803105746</v>
+        <v>355290.5609397933</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>345919.9803105746</v>
+        <v>355290.5609397931</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>345919.9803105748</v>
+        <v>355290.5609397933</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>345919.9803105746</v>
+        <v>355290.5609397933</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>355290.5609397931</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="8">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490077.4722130718</v>
+        <v>495368.783772988</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>345919.9803105746</v>
+        <v>355290.5609397933</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69180.83107499291</v>
+        <v>71053.67965375919</v>
       </c>
       <c r="C2" t="n">
-        <v>69180.83107499292</v>
+        <v>71053.67965375919</v>
       </c>
       <c r="D2" t="n">
-        <v>69180.83107499294</v>
+        <v>71053.6796537592</v>
       </c>
       <c r="E2" t="n">
-        <v>69180.83107499292</v>
+        <v>71053.67965375919</v>
       </c>
       <c r="F2" t="n">
-        <v>69180.83107499292</v>
+        <v>71053.67965375917</v>
       </c>
       <c r="G2" t="n">
-        <v>71053.67965375917</v>
+        <v>71731.80321071926</v>
       </c>
       <c r="H2" t="n">
         <v>99696.40351879936</v>
@@ -26335,25 +26335,25 @@
         <v>99696.40351879937</v>
       </c>
       <c r="J2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="K2" t="n">
         <v>99696.4035187994</v>
       </c>
       <c r="L2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="M2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="N2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="O2" t="n">
-        <v>97992.82944639152</v>
+        <v>99050.37600907717</v>
       </c>
       <c r="P2" t="n">
-        <v>69180.83107499292</v>
+        <v>71053.67965375917</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9246.052035312925</v>
+        <v>13265.46759908291</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26378,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3287.334843612329</v>
+        <v>1246.619549474791</v>
       </c>
       <c r="H3" t="n">
-        <v>54347.73800859507</v>
+        <v>53120.56697032503</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7218.764569210156</v>
+        <v>10356.88390380382</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13543.27151380256</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="C4" t="n">
-        <v>13543.27151380256</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="D4" t="n">
-        <v>13543.27151380256</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="E4" t="n">
-        <v>13543.27151380256</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="F4" t="n">
-        <v>13543.27151380257</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="G4" t="n">
-        <v>13925.73993505492</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="H4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>19427.1852776657</v>
+        <v>16801.53650439377</v>
       </c>
       <c r="P4" t="n">
-        <v>13543.27151380256</v>
+        <v>11897.85367509446</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35305.07353582722</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="C5" t="n">
-        <v>35305.07353582722</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="D5" t="n">
-        <v>35305.07353582722</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="E5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="F5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="G5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26506,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>13924.44258030898</v>
+        <v>14377.13240238448</v>
       </c>
       <c r="P5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11086.43399005019</v>
+        <v>9856.058660301904</v>
       </c>
       <c r="C6" t="n">
-        <v>20332.48602536314</v>
+        <v>23121.52625938482</v>
       </c>
       <c r="D6" t="n">
-        <v>20332.48602536315</v>
+        <v>23121.52625938483</v>
       </c>
       <c r="E6" t="n">
-        <v>53960.08602536314</v>
+        <v>56749.12625938482</v>
       </c>
       <c r="F6" t="n">
-        <v>53960.08602536314</v>
+        <v>56749.12625938481</v>
       </c>
       <c r="G6" t="n">
-        <v>51433.90515581201</v>
+        <v>55785.31907576995</v>
       </c>
       <c r="H6" t="n">
-        <v>10919.91186100963</v>
+        <v>15007.47814373182</v>
       </c>
       <c r="I6" t="n">
-        <v>65267.64986960472</v>
+        <v>68128.04511405686</v>
       </c>
       <c r="J6" t="n">
-        <v>58048.88530039456</v>
+        <v>57771.16121025306</v>
       </c>
       <c r="K6" t="n">
-        <v>65267.64986960475</v>
+        <v>68128.04511405689</v>
       </c>
       <c r="L6" t="n">
-        <v>65267.64986960473</v>
+        <v>68128.04511405689</v>
       </c>
       <c r="M6" t="n">
-        <v>65267.64986960472</v>
+        <v>68128.04511405689</v>
       </c>
       <c r="N6" t="n">
-        <v>65267.64986960475</v>
+        <v>68128.04511405685</v>
       </c>
       <c r="O6" t="n">
-        <v>64641.20158841684</v>
+        <v>67871.70710229893</v>
       </c>
       <c r="P6" t="n">
-        <v>53960.08602536314</v>
+        <v>56749.12625938481</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26826,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>229.0204371761346</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="P4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,16 +27024,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>11.99385170152445</v>
+        <v>4.548295417388005</v>
       </c>
       <c r="H4" t="n">
-        <v>201.4304119158185</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27270,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>11.99385170152445</v>
+        <v>4.548295417388005</v>
       </c>
       <c r="P4" t="n">
-        <v>201.4304119158185</v>
+        <v>196.8821164984305</v>
       </c>
     </row>
   </sheetData>
@@ -34705,16 +34705,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>26.47527676494984</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N2" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O2" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P2" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,22 +34781,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M3" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P3" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34863,10 +34863,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="P5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N6" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q6" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35100,10 +35100,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M7" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35176,19 +35176,19 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M8" t="n">
-        <v>26.47527676494984</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N8" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35258,19 +35258,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>26.47527676494984</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N9" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35337,10 +35337,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L11" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P11" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="L12" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,10 +35504,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35574,10 +35574,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M13" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35650,19 +35650,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M14" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O14" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P14" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35811,10 +35811,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M16" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,19 +35884,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N17" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O17" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,13 +35972,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O18" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P18" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36051,7 +36051,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N19" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O19" t="n">
         <v>24.58512791403967</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36209,16 +36209,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O21" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36686,7 +36686,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36914,7 +36914,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36923,7 +36923,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37075,10 +37075,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O32" t="n">
         <v>150.7019698410586</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37160,7 +37160,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37385,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37397,13 +37397,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>161.1784674257276</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37637,10 +37637,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>56.56475478883492</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37795,7 +37795,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>72.55630025847472</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,19 +37859,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>35.27872495351209</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>229.0204371761346</v>
+        <v>156.4456740394513</v>
       </c>
       <c r="N42" t="n">
-        <v>229.0204371761346</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>229.0204371761346</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38017,22 +38017,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O44" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="L45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38181,10 +38181,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M46" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376293.3082743287</v>
+        <v>373007.8661325562</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221766</v>
+        <v>2114249.189782367</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179435</v>
+        <v>19492207.609564</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4902171.467891437</v>
+        <v>5117581.913230948</v>
       </c>
     </row>
     <row r="11">
@@ -701,28 +703,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>24.87477961344436</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -753,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -795,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="W3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="4">
@@ -826,22 +828,22 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I4" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>22.91618947337665</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -917,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>34.86547882798917</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1029,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1154,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>39.58387696184059</v>
+        <v>26.92232807701203</v>
       </c>
       <c r="T8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,22 +1214,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1263,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1278,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="10">
@@ -1306,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1379,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>12.92549025883184</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,16 +1414,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1494,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T12" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U12" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="V12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1543,16 +1545,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J13" t="n">
-        <v>9.977552361264268</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1579,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1667,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="15">
@@ -1692,22 +1694,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1734,16 +1736,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1786,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,19 +1806,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>44.13217237922859</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>44.13217237922859</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>38.87161743162454</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1929,22 +1931,22 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>44.13217237922859</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>147.2379120664689</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2005,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2056,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V19" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,73 +2080,73 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>116.325098768111</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2205,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>44.08176337665912</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2223,7 +2225,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2339,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>200.3360962888297</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>241.0142888776591</v>
@@ -2381,10 +2383,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2394,25 +2396,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>82.71243518046262</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2454,13 +2456,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>121.8430658505936</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2488,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2555,62 +2557,62 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>212.2853856434421</v>
-      </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
@@ -2618,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>190.3453970742848</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2682,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>62.43486741948629</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>12.94771755361639</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2789,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2846,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>212.285385643442</v>
-      </c>
-      <c r="V29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>106.0311077711178</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2880,7 +2882,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2892,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2934,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>85.31372784089217</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3010,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,10 +3076,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3092,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,13 +3110,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3153,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>85.6817074694044</v>
       </c>
       <c r="S33" t="n">
-        <v>135.4141600157168</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3205,13 +3207,13 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3229,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3272,7 +3274,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3323,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3360,10 +3362,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>85.31372784089211</v>
       </c>
       <c r="I36" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3396,22 +3398,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3430,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3500,76 +3502,76 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,16 +3584,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3627,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>89.66547645067541</v>
+        <v>188.0644551828377</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>208.2792470398066</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="42">
@@ -3822,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3837,10 +3839,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>70.20789917735027</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,19 +3869,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3952,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,31 +3976,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>50.46697834767978</v>
       </c>
       <c r="C44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4034,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4068,13 +4070,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>34.11888750173132</v>
+        <v>33.19332575419072</v>
       </c>
       <c r="H45" t="n">
-        <v>39.58387696184059</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>39.58387696184059</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4110,13 +4112,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4195,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L2" t="n">
-        <v>3.166710156947247</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M2" t="n">
-        <v>40.77139327069581</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N2" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O2" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S2" t="n">
-        <v>68.2764642733967</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T2" t="n">
-        <v>28.29275017052741</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U2" t="n">
-        <v>3.166710156947247</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V2" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W2" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>118.3517937444931</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="C3" t="n">
-        <v>118.3517937444931</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="D3" t="n">
-        <v>78.36807964162378</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="E3" t="n">
-        <v>78.36807964162378</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="F3" t="n">
-        <v>78.36807964162378</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="G3" t="n">
-        <v>78.36807964162378</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="H3" t="n">
-        <v>43.90455691260225</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I3" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
-        <v>40.77139327069581</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M3" t="n">
-        <v>79.95943146291799</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="N3" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="O3" t="n">
-        <v>119.1474696551402</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="P3" t="n">
-        <v>158.3355078473624</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V3" t="n">
-        <v>158.3355078473624</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="W3" t="n">
-        <v>118.3517937444931</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="X3" t="n">
-        <v>118.3517937444931</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="Y3" t="n">
-        <v>118.3517937444931</v>
+        <v>4.284706443124001</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C4" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D4" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E4" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F4" t="n">
-        <v>90.46354404567346</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="G4" t="n">
-        <v>90.46354404567346</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="H4" t="n">
-        <v>90.46354404567346</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="I4" t="n">
-        <v>65.64486044757699</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="J4" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S4" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T4" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U4" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V4" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W4" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X4" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y4" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C5" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D5" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E5" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F5" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G5" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L5" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M5" t="n">
-        <v>81.54278654139161</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N5" t="n">
-        <v>120.7308247336138</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O5" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W5" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="X5" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y5" t="n">
-        <v>118.3517937444931</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38.38436553875449</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C6" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L6" t="n">
-        <v>3.166710156947247</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M6" t="n">
-        <v>40.77139327069581</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N6" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O6" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P6" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U6" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V6" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W6" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X6" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y6" t="n">
-        <v>78.36807964162378</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25.66114634470771</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="C7" t="n">
-        <v>25.66114634470771</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="D7" t="n">
-        <v>25.66114634470771</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="E7" t="n">
-        <v>25.66114634470771</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="F7" t="n">
-        <v>25.66114634470771</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="G7" t="n">
-        <v>25.66114634470771</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="H7" t="n">
-        <v>25.66114634470771</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="I7" t="n">
-        <v>25.66114634470771</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J7" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S7" t="n">
-        <v>50.47982994280417</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="C8" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="D8" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="E8" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="F8" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="G8" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="H8" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="I8" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L8" t="n">
-        <v>42.35474834916943</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M8" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N8" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O8" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R8" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S8" t="n">
-        <v>83.13413836268582</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="T8" t="n">
-        <v>43.15042425981653</v>
+        <v>104.756466833843</v>
       </c>
       <c r="U8" t="n">
-        <v>3.166710156947247</v>
+        <v>104.756466833843</v>
       </c>
       <c r="V8" t="n">
-        <v>3.166710156947247</v>
+        <v>104.756466833843</v>
       </c>
       <c r="W8" t="n">
-        <v>3.166710156947247</v>
+        <v>104.756466833843</v>
       </c>
       <c r="X8" t="n">
-        <v>3.166710156947247</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.166710156947247</v>
+        <v>60.17851493563234</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>118.3517937444931</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C9" t="n">
-        <v>118.3517937444931</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D9" t="n">
-        <v>118.3517937444931</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E9" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F9" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G9" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M9" t="n">
-        <v>40.77139327069581</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="N9" t="n">
-        <v>79.95943146291799</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O9" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P9" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T9" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U9" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V9" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W9" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X9" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y9" t="n">
-        <v>118.3517937444931</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.15042425981653</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C10" t="n">
-        <v>43.15042425981653</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D10" t="n">
-        <v>43.15042425981653</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E10" t="n">
-        <v>43.15042425981653</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F10" t="n">
-        <v>43.15042425981653</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G10" t="n">
-        <v>43.15042425981653</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H10" t="n">
-        <v>43.15042425981653</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I10" t="n">
-        <v>43.15042425981653</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J10" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>123.1178524655551</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>83.13413836268582</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S10" t="n">
-        <v>43.15042425981653</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T10" t="n">
-        <v>43.15042425981653</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U10" t="n">
-        <v>43.15042425981653</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V10" t="n">
-        <v>43.15042425981653</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W10" t="n">
-        <v>43.15042425981653</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X10" t="n">
-        <v>43.15042425981653</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y10" t="n">
-        <v>43.15042425981653</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>148.2438924791353</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C11" t="n">
-        <v>148.2438924791353</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D11" t="n">
-        <v>148.2438924791353</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E11" t="n">
-        <v>148.2438924791353</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F11" t="n">
-        <v>135.1878417126385</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G11" t="n">
-        <v>95.20412760976917</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H11" t="n">
-        <v>55.22041350689989</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I11" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L11" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M11" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N11" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O11" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R11" t="n">
-        <v>148.2438924791353</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S11" t="n">
-        <v>148.2438924791353</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T11" t="n">
-        <v>148.2438924791353</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U11" t="n">
-        <v>148.2438924791353</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V11" t="n">
-        <v>148.2438924791353</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W11" t="n">
-        <v>148.2438924791353</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X11" t="n">
-        <v>148.2438924791353</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y11" t="n">
-        <v>148.2438924791353</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>40.77139327069581</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L12" t="n">
-        <v>40.77139327069581</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M12" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N12" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O12" t="n">
-        <v>79.95943146291799</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P12" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S12" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T12" t="n">
-        <v>123.1178524655551</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U12" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V12" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.22875997826529</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C13" t="n">
-        <v>53.22875997826529</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D13" t="n">
-        <v>53.22875997826529</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E13" t="n">
-        <v>53.22875997826529</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F13" t="n">
-        <v>53.22875997826529</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G13" t="n">
-        <v>53.22875997826529</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H13" t="n">
-        <v>53.22875997826529</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I13" t="n">
-        <v>13.245045875396</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J13" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T13" t="n">
-        <v>93.21247408113457</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U13" t="n">
-        <v>93.21247408113457</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V13" t="n">
-        <v>93.21247408113457</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W13" t="n">
-        <v>53.22875997826529</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X13" t="n">
-        <v>53.22875997826529</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.22875997826529</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>38.38436553875449</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C14" t="n">
-        <v>38.38436553875449</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D14" t="n">
-        <v>38.38436553875449</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="E14" t="n">
-        <v>38.38436553875449</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F14" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G14" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H14" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L14" t="n">
-        <v>40.77139327069581</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M14" t="n">
-        <v>40.77139327069581</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N14" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O14" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T14" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U14" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V14" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W14" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X14" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y14" t="n">
-        <v>38.38436553875449</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E15" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F15" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G15" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L15" t="n">
-        <v>3.166710156947247</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M15" t="n">
-        <v>42.35474834916943</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N15" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O15" t="n">
-        <v>119.1474696551402</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="P15" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T15" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U15" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50.47982994280417</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C16" t="n">
-        <v>50.47982994280417</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D16" t="n">
-        <v>50.47982994280417</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E16" t="n">
-        <v>50.47982994280417</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F16" t="n">
-        <v>50.47982994280417</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G16" t="n">
-        <v>50.47982994280417</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H16" t="n">
-        <v>50.47982994280417</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I16" t="n">
-        <v>50.47982994280417</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J16" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.46354404567346</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="R16" t="n">
-        <v>50.47982994280417</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="S16" t="n">
-        <v>50.47982994280417</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="T16" t="n">
-        <v>50.47982994280417</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U16" t="n">
-        <v>50.47982994280417</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V16" t="n">
-        <v>50.47982994280417</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W16" t="n">
-        <v>50.47982994280417</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X16" t="n">
-        <v>50.47982994280417</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y16" t="n">
-        <v>50.47982994280417</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.530573790338288</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C17" t="n">
-        <v>3.530573790338288</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D17" t="n">
-        <v>3.530573790338288</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E17" t="n">
-        <v>3.530573790338288</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F17" t="n">
-        <v>3.530573790338288</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G17" t="n">
-        <v>3.530573790338288</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H17" t="n">
-        <v>3.530573790338288</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="I17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>134.6031257566472</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>87.37278572049297</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T17" t="n">
-        <v>42.79483382228227</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U17" t="n">
-        <v>3.530573790338288</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V17" t="n">
-        <v>3.530573790338288</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W17" t="n">
-        <v>3.530573790338288</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="X17" t="n">
-        <v>3.530573790338288</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.530573790338288</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.5286895169144</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C18" t="n">
-        <v>176.5286895169144</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D18" t="n">
-        <v>176.5286895169144</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E18" t="n">
-        <v>131.9507376187037</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F18" t="n">
-        <v>87.37278572049297</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G18" t="n">
-        <v>48.10852568854899</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H18" t="n">
-        <v>48.10852568854899</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>47.22142444577459</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N18" t="n">
-        <v>89.14698820604177</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>176.5286895169144</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>176.5286895169144</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>176.5286895169144</v>
+        <v>110.334904905842</v>
       </c>
       <c r="W18" t="n">
-        <v>176.5286895169144</v>
+        <v>110.334904905842</v>
       </c>
       <c r="X18" t="n">
-        <v>176.5286895169144</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y18" t="n">
-        <v>176.5286895169144</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5789,13 +5791,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,7 +5807,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>193.7341723913397</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C21" t="n">
         <v>19.28114311021272</v>
@@ -5841,40 +5843,40 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>644.9432478003937</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>644.9432478003937</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>644.9432478003937</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>401.4944711562937</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X21" t="n">
-        <v>401.4944711562937</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y21" t="n">
-        <v>193.7341723913397</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="22">
@@ -5935,10 +5937,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6016,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>761.6974622895962</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>761.6974622895962</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U23" t="n">
-        <v>518.2486856454962</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V23" t="n">
-        <v>274.7999090013961</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W23" t="n">
-        <v>31.35113235729608</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X23" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>660.701031422288</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>660.701031422288</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6072,46 +6074,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V24" t="n">
-        <v>638.7967569799137</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W24" t="n">
-        <v>395.3479803358136</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X24" t="n">
-        <v>187.4964801302808</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y24" t="n">
-        <v>187.4964801302808</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G25" t="n">
         <v>19.28114311021272</v>
@@ -6172,25 +6174,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>720.6083788665362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C26" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D26" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E26" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F26" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.6083788665362</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="27">
@@ -6279,7 +6281,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C27" t="n">
         <v>19.28114311021272</v>
@@ -6309,19 +6311,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>900.9916328646905</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>698.8050382234566</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>470.5814199598456</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V27" t="n">
-        <v>470.5814199598456</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W27" t="n">
-        <v>227.1326433157456</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H28" t="n">
         <v>19.28114311021272</v>
@@ -6406,28 +6408,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6494,19 +6496,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V29" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W29" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X29" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y29" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="V29" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="W29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>501.9060370580465</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="C30" t="n">
-        <v>327.4530077769195</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D30" t="n">
-        <v>178.5185981156682</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,16 +6548,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>178.8501590306595</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M30" t="n">
-        <v>417.4543050195419</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>656.0584510084244</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6582,10 +6584,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X30" t="n">
-        <v>877.8816728430684</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y30" t="n">
-        <v>670.1213740781145</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="31">
@@ -6646,16 +6648,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>223.6192102101089</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6724,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>467.067986854209</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E33" t="n">
         <v>19.28114311021272</v>
@@ -6783,46 +6785,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>417.4543050195419</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>877.5099762486116</v>
       </c>
       <c r="S33" t="n">
-        <v>726.1056462496665</v>
+        <v>704.0926316992804</v>
       </c>
       <c r="T33" t="n">
-        <v>726.1056462496665</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="U33" t="n">
-        <v>497.8820279860555</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="V33" t="n">
-        <v>262.7299197543128</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="W33" t="n">
-        <v>19.28114311021272</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>501.9060370580465</v>
       </c>
     </row>
     <row r="34">
@@ -6832,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
         <v>19.28114311021272</v>
@@ -6877,31 +6879,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D35" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C35" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D35" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
         <v>19.28114311021272</v>
@@ -6971,16 +6973,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>55.04605772994853</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C36" t="n">
-        <v>55.04605772994853</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="D36" t="n">
-        <v>55.04605772994853</v>
+        <v>264.694080783236</v>
       </c>
       <c r="E36" t="n">
-        <v>55.04605772994853</v>
+        <v>105.4566257777805</v>
       </c>
       <c r="F36" t="n">
-        <v>55.04605772994853</v>
+        <v>105.4566257777805</v>
       </c>
       <c r="G36" t="n">
-        <v>55.04605772994853</v>
+        <v>105.4566257777805</v>
       </c>
       <c r="H36" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7017,16 +7019,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O36" t="n">
         <v>781.4136778972854</v>
@@ -7044,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>298.4948343740486</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>55.04605772994853</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>55.04605772994853</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y36" t="n">
-        <v>55.04605772994853</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="37">
@@ -7078,13 +7080,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H37" t="n">
         <v>829.5248650203655</v>
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>499.5061853699102</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F39" t="n">
         <v>19.28114311021272</v>
@@ -7257,16 +7259,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>417.4543050195419</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
         <v>894.6625969973069</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>588.4532163200711</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U39" t="n">
-        <v>588.4532163200711</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V39" t="n">
-        <v>353.3011080883284</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W39" t="n">
-        <v>109.8523314442283</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>499.5061853699102</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>499.5061853699102</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>121.932285387744</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>302.0081369724026</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>518.9837642353068</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>724.8382864425462</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>874.0332365851942</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>735.4808960230977</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>735.4808960230977</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>496.626357174339</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>257.7718183255803</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>257.7718183255803</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X41" t="n">
-        <v>18.91727947682168</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y41" t="n">
-        <v>18.91727947682168</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>90.58848200571879</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C42" t="n">
-        <v>90.58848200571879</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D42" t="n">
-        <v>90.58848200571879</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>90.58848200571879</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>90.58848200571879</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>90.58848200571879</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>90.58848200571879</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>19.6714121296074</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.2748395346591</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.2379454030082</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M42" t="n">
-        <v>529.119162702065</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N42" t="n">
-        <v>529.119162702065</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>763.2204962277333</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>772.4466292917531</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>772.4466292917531</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>772.4466292917531</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>537.2945210600103</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>298.4399822112516</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X42" t="n">
-        <v>90.58848200571879</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y42" t="n">
-        <v>90.58848200571879</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.91727947682168</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C43" t="n">
-        <v>18.91727947682168</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D43" t="n">
-        <v>18.91727947682168</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E43" t="n">
-        <v>18.91727947682168</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F43" t="n">
-        <v>18.91727947682168</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G43" t="n">
-        <v>18.91727947682168</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H43" t="n">
-        <v>18.91727947682168</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I43" t="n">
-        <v>18.91727947682168</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J43" t="n">
-        <v>18.91727947682168</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K43" t="n">
-        <v>18.91727947682168</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L43" t="n">
-        <v>46.23140448453466</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M43" t="n">
-        <v>85.41944267675684</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N43" t="n">
-        <v>129.1102933321932</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O43" t="n">
-        <v>153.4495699670924</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P43" t="n">
-        <v>153.4495699670924</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.4495699670924</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R43" t="n">
-        <v>153.4495699670924</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S43" t="n">
-        <v>153.4495699670924</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4495699670924</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U43" t="n">
-        <v>18.91727947682168</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V43" t="n">
-        <v>18.91727947682168</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W43" t="n">
-        <v>18.91727947682168</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X43" t="n">
-        <v>18.91727947682168</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.91727947682168</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>123.1178524655551</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C44" t="n">
-        <v>83.13413836268582</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D44" t="n">
-        <v>43.15042425981653</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E44" t="n">
-        <v>43.15042425981653</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F44" t="n">
-        <v>43.15042425981653</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G44" t="n">
-        <v>43.15042425981653</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>42.35474834916943</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>79.95943146291799</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>79.95943146291799</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>119.1474696551402</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>158.3355078473624</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>148.2438924791353</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>148.2438924791353</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>148.2438924791353</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T44" t="n">
-        <v>148.2438924791353</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U44" t="n">
-        <v>148.2438924791353</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V44" t="n">
-        <v>148.2438924791353</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W44" t="n">
-        <v>123.1178524655551</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X44" t="n">
-        <v>123.1178524655551</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y44" t="n">
-        <v>123.1178524655551</v>
+        <v>325.7766548071333</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>118.3517937444931</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C45" t="n">
-        <v>118.3517937444931</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D45" t="n">
-        <v>118.3517937444931</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E45" t="n">
-        <v>118.3517937444931</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F45" t="n">
-        <v>118.3517937444931</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="G45" t="n">
-        <v>83.88827101547153</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H45" t="n">
-        <v>43.90455691260225</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
-        <v>3.920842809732961</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>40.77139327069581</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>40.77139327069581</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>40.77139327069581</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N45" t="n">
-        <v>40.77139327069581</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>79.95943146291799</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>119.1474696551402</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>158.3355078473624</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>158.3355078473624</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>118.3517937444931</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>118.3517937444931</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y45" t="n">
-        <v>118.3517937444931</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.166710156947247</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>3.166710156947247</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>3.166710156947247</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>3.166710156947247</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>3.166710156947247</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>30.48083516466022</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>69.6688733568824</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>108.8569115491046</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>93.21247408113457</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>53.22875997826529</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>13.245045875396</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>268.3307616249986</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N2" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,22 +8063,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>176.5389081776</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O3" t="n">
-        <v>182.180121406285</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P3" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>182.3308283893217</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L5" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N5" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>268.0827398194126</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M6" t="n">
-        <v>180.1185623197441</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N6" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8383,7 +8385,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L8" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M8" t="n">
-        <v>268.3307616249986</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N8" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8538,19 +8540,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>170.9255890451739</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O9" t="n">
-        <v>182.180121406285</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q9" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,7 +8622,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>259.6737280068211</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L11" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M11" t="n">
-        <v>268.3307616249986</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>175.8259673720848</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M12" t="n">
-        <v>181.7179108838589</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P12" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8857,7 +8859,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L14" t="n">
-        <v>273.750943367713</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N14" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P14" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M15" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>176.3234617176304</v>
       </c>
       <c r="Q15" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9094,7 +9096,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N18" t="n">
-        <v>173.6907663866335</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9489,16 +9491,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,13 +9722,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M24" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,10 +9959,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
         <v>131.3417120833333</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>173.111405903722</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10203,10 +10205,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10431,10 +10433,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10446,7 +10448,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,19 +10667,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10905,10 +10907,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>312.0431814381598</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10917,7 +10919,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11075,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>303.7892960137443</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M42" t="n">
-        <v>298.5797079614696</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>379.0622379047155</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>259.6737280068211</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>273.750943367713</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>268.9969405584315</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>269.6820883835273</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>175.8259673720848</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>182.180121406285</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11464,7 +11466,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22589,28 +22591,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>226.4708732943921</v>
+        <v>212.474035476212</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22629,7 +22631,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>107.8611886027982</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22641,10 +22643,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>78.11655673476514</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22683,16 +22685,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>194.6755610440586</v>
       </c>
       <c r="W3" t="n">
-        <v>212.111106199079</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="4">
@@ -22714,22 +22716,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>101.2888756437027</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>123.8588069792302</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>118.095000128211</v>
       </c>
       <c r="I4" t="n">
-        <v>130.8799781651428</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>53.77530315483219</v>
+        <v>92.56872966899051</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,10 +22746,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>343.14996470164</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C5" t="n">
-        <v>325.689014809167</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>331.7668521473063</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22805,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22844,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>310.3693512857885</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y5" t="n">
-        <v>346.654061694213</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="6">
@@ -22860,13 +22862,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>126.9493066880268</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>137.8430201603266</v>
+        <v>133.8368815566912</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22917,19 +22919,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>186.3575051191342</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>166.0988188154638</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="7">
@@ -22939,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>135.6998078027087</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22960,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>132.7973439262303</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22981,19 +22983,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>203.375092666166</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23042,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23066,16 +23068,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>115.0036391131605</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>169.4361926244048</v>
+        <v>182.0977415092333</v>
       </c>
       <c r="T8" t="n">
-        <v>183.5119726022908</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U8" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23084,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23100,22 +23102,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>133.8368815566912</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F9" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>77.36996540850728</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23151,7 +23153,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -23166,7 +23168,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>166.0988188154638</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="10">
@@ -23194,16 +23196,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J10" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,13 +23223,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>76.18449089043011</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23267,19 +23269,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>393.9505554828796</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>170.8920126085653</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,16 +23302,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>110.9975005095251</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23382,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T12" t="n">
-        <v>165.2992498668324</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U12" t="n">
-        <v>186.3575051191342</v>
+        <v>187.0697646493503</v>
       </c>
       <c r="V12" t="n">
-        <v>193.2167101875847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>212.111106199079</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23431,16 +23433,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>162.2271725074396</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I13" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J13" t="n">
-        <v>83.3816277554085</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23467,7 +23469,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>188.3617124664409</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23476,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>246.9391213747504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23501,10 +23503,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>368.0044283100869</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23513,7 +23515,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>175.6104107424167</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23546,7 +23548,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23555,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>346.654061694213</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="15">
@@ -23580,22 +23582,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>118.0612034935604</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>55.27774534968376</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23622,16 +23624,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>132.8115536722133</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23674,10 +23676,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>68.78868335455728</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,19 +23694,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.5781662898538</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R16" t="n">
-        <v>137.7095144153289</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>227.1551389805992</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23750,7 +23752,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>189.2921341996816</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23777,19 +23779,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8878972070167</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>178.9636771849028</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>212.474035476212</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23817,22 +23819,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>98.47189973158609</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>45.26446047218649</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>85.56267508295639</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23893,10 +23895,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>104.4833006389838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>102.3017902673406</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23944,10 +23946,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>242.1868569772623</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
-        <v>251.3471928761457</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23966,31 +23968,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24029,10 +24031,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>56.38340022020472</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24093,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>156.0829653181625</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24111,7 +24113,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24227,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24254,13 +24256,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>8.68397329741569</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>86.73796959247585</v>
@@ -24269,10 +24271,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>366.4657846212723</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>64.73263038417613</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24330,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24342,13 +24344,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>110.9575212988316</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24376,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24412,7 +24414,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24443,28 +24445,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24497,7 +24499,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24506,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>195.8925415817688</v>
       </c>
     </row>
     <row r="27">
@@ -24519,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24570,25 +24572,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>109.2483036843515</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>238.7472656073032</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24616,7 +24618,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24646,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24677,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24734,19 +24736,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="30">
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>60.50207587874957</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24768,7 +24770,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24780,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24822,7 +24824,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>120.4592573625853</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24898,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24962,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24980,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24996,13 +24998,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25041,22 +25043,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>14.47612668323873</v>
       </c>
       <c r="S33" t="n">
-        <v>36.26901108812098</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25093,13 +25095,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>44.5329991677731</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25117,7 +25119,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>171.5597290184211</v>
       </c>
     </row>
     <row r="35">
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25160,7 +25162,7 @@
         <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25211,13 +25213,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25248,10 +25250,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>26.92171639560435</v>
       </c>
       <c r="I36" t="n">
-        <v>53.98936737787663</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25284,22 +25286,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25318,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,7 +25329,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I37" t="n">
         <v>155.4504749272583</v>
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25436,28 +25438,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>160.679581861839</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25470,16 +25472,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25515,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>116.1075087528021</v>
+        <v>17.70853002063973</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25676,25 +25678,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0.7408225464386931</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>14.87965944756544</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>91.28626500986385</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X41" t="n">
-        <v>133.265107218198</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25710,7 +25712,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>117.6460565997561</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25725,10 +25727,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>19.18873367406481</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,19 +25757,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>15.22898970064855</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25840,13 +25842,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,31 +25864,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>332.2668633158008</v>
       </c>
       <c r="C44" t="n">
-        <v>325.689014809167</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>315.0991646588424</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,10 +25909,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25922,16 +25924,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
-        <v>324.3661891039686</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25956,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>103.2246296614793</v>
+        <v>104.1501914090199</v>
       </c>
       <c r="H45" t="n">
-        <v>72.65156727465587</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>49.81275588957449</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25998,13 +26000,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>212.111106199079</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>169.854427820673</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26083,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>246.9391213747504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>186.1257784271966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>179.0007763902542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355290.5609397931</v>
+        <v>358683.4735004298</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355290.5609397933</v>
+        <v>358683.47350043</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355290.5609397931</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355290.5609397933</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355290.5609397933</v>
+        <v>358683.47350043</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358683.4735004299</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495368.783772988</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355290.5609397933</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71053.67965375919</v>
+        <v>71731.8032107192</v>
       </c>
       <c r="C2" t="n">
-        <v>71053.67965375919</v>
+        <v>71731.8032107192</v>
       </c>
       <c r="D2" t="n">
-        <v>71053.6796537592</v>
+        <v>71731.8032107192</v>
       </c>
       <c r="E2" t="n">
-        <v>71053.67965375919</v>
+        <v>71731.8032107192</v>
       </c>
       <c r="F2" t="n">
-        <v>71053.67965375917</v>
+        <v>71731.80321071927</v>
       </c>
       <c r="G2" t="n">
-        <v>71731.80321071926</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="H2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="I2" t="n">
         <v>99696.40351879937</v>
@@ -26338,22 +26340,22 @@
         <v>99696.40351879939</v>
       </c>
       <c r="K2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="L2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="M2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="N2" t="n">
         <v>99696.40351879936</v>
       </c>
       <c r="O2" t="n">
-        <v>99050.37600907717</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="P2" t="n">
-        <v>71053.67965375917</v>
+        <v>99696.40351879937</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.46759908291</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1246.619549474791</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="C4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="D4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="E4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="F4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="G4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
         <v>16914.68964098084</v>
@@ -26454,10 +26456,10 @@
         <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>16801.53650439377</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
-        <v>11897.85367509446</v>
+        <v>16914.68964098084</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14377.13240238448</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2406.699719279908</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9856.058660301904</v>
+        <v>8614.632621000455</v>
       </c>
       <c r="C6" t="n">
-        <v>23121.52625938482</v>
+        <v>23404.33862524468</v>
       </c>
       <c r="D6" t="n">
-        <v>23121.52625938483</v>
+        <v>23404.33862524468</v>
       </c>
       <c r="E6" t="n">
-        <v>56749.12625938482</v>
+        <v>57031.93862524468</v>
       </c>
       <c r="F6" t="n">
-        <v>56749.12625938481</v>
+        <v>57031.93862524475</v>
       </c>
       <c r="G6" t="n">
-        <v>55785.31907576995</v>
+        <v>14165.61021358456</v>
       </c>
       <c r="H6" t="n">
-        <v>15007.47814373182</v>
+        <v>68128.04511405688</v>
       </c>
       <c r="I6" t="n">
         <v>68128.04511405686</v>
       </c>
       <c r="J6" t="n">
-        <v>57771.16121025306</v>
+        <v>56581.12700406599</v>
       </c>
       <c r="K6" t="n">
-        <v>68128.04511405689</v>
+        <v>68128.04511405683</v>
       </c>
       <c r="L6" t="n">
-        <v>68128.04511405689</v>
+        <v>68128.04511405685</v>
       </c>
       <c r="M6" t="n">
-        <v>68128.04511405689</v>
+        <v>68128.04511405685</v>
       </c>
       <c r="N6" t="n">
         <v>68128.04511405685</v>
       </c>
       <c r="O6" t="n">
-        <v>67871.70710229893</v>
+        <v>20748.16689659309</v>
       </c>
       <c r="P6" t="n">
-        <v>56749.12625938481</v>
+        <v>68128.04511405686</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>196.8821164984305</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M6" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M8" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35258,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M11" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L14" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="Q15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>42.34905430330016</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N18" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36209,16 +36211,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,13 +36442,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M24" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,10 +36679,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36692,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>34.55702612384782</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36923,10 +36925,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37078,7 +37080,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
         <v>150.7019698410586</v>
@@ -37151,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37315,7 +37317,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37385,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37625,10 +37627,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9091475161415</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37637,7 +37639,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37795,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>72.55630025847472</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M42" t="n">
-        <v>156.4456740394513</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>39.58387696184059</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>37.98452839772582</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>39.58387696184059</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>39.58387696184059</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>37.98452839772582</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373007.8661325562</v>
+        <v>267281.5962860413</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2114249.189782367</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19492207.609564</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5117581.913230948</v>
+        <v>5765385.89860145</v>
       </c>
     </row>
     <row r="11">
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>38.87161743162455</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V2" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>157.1746589509483</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>38.12502610536668</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>44.13217237922859</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>44.13217237922859</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -828,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -977,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>38.87161743162454</v>
+        <v>84.05721994201966</v>
       </c>
       <c r="D6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>26.92232807701203</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1214,13 +1214,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>44.13217237922859</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>82.69355372315663</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>44.13217237922859</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1308,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>44.13217237922859</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>44.13217237922859</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>84.05721994201966</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1496,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>44.13217237922859</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1545,16 +1545,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>44.13217237922859</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="F14" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,16 +1685,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1733,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>57.85749813438609</v>
       </c>
       <c r="S15" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>44.13217237922859</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1809,16 +1809,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T16" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -1900,13 +1900,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>90.91642501047011</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>147.2379120664689</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,76 +2080,76 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S20" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T20" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>102.3382270926889</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X20" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>116.325098768111</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2213,16 +2213,16 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>90.90725545139047</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2402,19 +2402,19 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>82.71243518046262</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2490,49 +2490,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2599,31 +2599,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>9.234466016111838</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>190.3453970742848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2684,19 +2684,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>12.94771755361639</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2730,40 +2730,40 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>241.0142888776591</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="Y29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,19 +2870,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>106.0311077711178</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2924,19 +2924,19 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>97.76646051984092</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3037,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>241.0142888776591</v>
@@ -3076,22 +3076,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3110,22 +3110,22 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>85.6817074694044</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>104.0508854668114</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,76 +3265,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E35" t="n">
+      <c r="G35" t="n">
+        <v>190.3453970742847</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>85.31372784089211</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3401,16 +3401,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3441,55 +3441,55 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3547,25 +3547,25 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>62.4162677022923</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3584,16 +3584,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>188.0644551828377</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3739,26 +3739,26 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
@@ -3784,31 +3784,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W41" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3872,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3887,7 +3887,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,76 +3976,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>50.46697834767978</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4070,16 +4070,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>33.19332575419072</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4121,10 +4121,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>137.2644294849704</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>92.68647758675968</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W2" t="n">
-        <v>48.10852568854899</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>3.530573790338288</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>3.530573790338288</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>47.22142444577459</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>90.91227510121089</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>134.6031257566472</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>176.5286895169144</v>
+        <v>805.2948737420015</v>
       </c>
       <c r="T3" t="n">
-        <v>176.5286895169144</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="U3" t="n">
-        <v>176.5286895169144</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="V3" t="n">
-        <v>138.0185621377561</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="W3" t="n">
-        <v>93.44061023954541</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X3" t="n">
-        <v>48.8626583413347</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.284706443124001</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.530573790338288</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C5" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>92.68647758675968</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y5" t="n">
-        <v>48.10852568854899</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87.37278572049297</v>
+        <v>104.1874258799295</v>
       </c>
       <c r="C6" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>90.91227510121089</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M6" t="n">
-        <v>132.8378388614781</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>132.8378388614781</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U6" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V6" t="n">
-        <v>176.5286895169144</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W6" t="n">
-        <v>131.9507376187037</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="X6" t="n">
-        <v>131.9507376187037</v>
+        <v>104.1874258799295</v>
       </c>
       <c r="Y6" t="n">
-        <v>87.37278572049297</v>
+        <v>104.1874258799295</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.60056303742164</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C8" t="n">
-        <v>15.60056303742164</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D8" t="n">
-        <v>15.60056303742164</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E8" t="n">
-        <v>15.60056303742164</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F8" t="n">
-        <v>15.60056303742164</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>149.3344187320537</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>104.756466833843</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>104.756466833843</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>104.756466833843</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>104.756466833843</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>60.17851493563234</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y8" t="n">
-        <v>60.17851493563234</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>3.530573790338288</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>45.45613755060546</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>89.14698820604177</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>131.9507376187037</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>131.9507376187037</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V9" t="n">
-        <v>131.9507376187037</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W9" t="n">
-        <v>131.9507376187037</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X9" t="n">
-        <v>131.9507376187037</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y9" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>48.10852568854899</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C11" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>45.45613755060546</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>92.68647758675968</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T11" t="n">
-        <v>48.10852568854899</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U11" t="n">
-        <v>48.10852568854899</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V11" t="n">
-        <v>48.10852568854899</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W11" t="n">
-        <v>48.10852568854899</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="X11" t="n">
-        <v>48.10852568854899</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="Y11" t="n">
-        <v>48.10852568854899</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>45.45613755060546</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>89.14698820604177</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N12" t="n">
-        <v>132.8378388614781</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O12" t="n">
-        <v>176.5286895169144</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P12" t="n">
-        <v>176.5286895169144</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>87.37278572049297</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T12" t="n">
-        <v>42.79483382228227</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U12" t="n">
-        <v>3.530573790338288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V12" t="n">
-        <v>3.530573790338288</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W12" t="n">
-        <v>3.530573790338288</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="X12" t="n">
-        <v>3.530573790338288</v>
+        <v>104.1874258799295</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.530573790338288</v>
+        <v>104.1874258799295</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>87.37278572049297</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="C14" t="n">
-        <v>87.37278572049297</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="D14" t="n">
-        <v>87.37278572049297</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="E14" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>176.5286895169144</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T14" t="n">
-        <v>176.5286895169144</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U14" t="n">
-        <v>176.5286895169144</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="V14" t="n">
-        <v>176.5286895169144</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="W14" t="n">
-        <v>176.5286895169144</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="X14" t="n">
-        <v>176.5286895169144</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="Y14" t="n">
-        <v>131.9507376187037</v>
+        <v>358.0940480307835</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.530573790338288</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="C15" t="n">
-        <v>3.530573790338288</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D15" t="n">
-        <v>3.530573790338288</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>90.91227510121089</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>90.91227510121089</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N15" t="n">
-        <v>90.91227510121089</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O15" t="n">
-        <v>90.91227510121089</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>176.5286895169144</v>
+        <v>905.6152382031755</v>
       </c>
       <c r="S15" t="n">
-        <v>137.2644294849704</v>
+        <v>905.6152382031755</v>
       </c>
       <c r="T15" t="n">
-        <v>92.68647758675968</v>
+        <v>703.4286435619415</v>
       </c>
       <c r="U15" t="n">
-        <v>48.10852568854899</v>
+        <v>703.4286435619415</v>
       </c>
       <c r="V15" t="n">
-        <v>3.530573790338288</v>
+        <v>703.4286435619415</v>
       </c>
       <c r="W15" t="n">
-        <v>3.530573790338288</v>
+        <v>703.4286435619415</v>
       </c>
       <c r="X15" t="n">
-        <v>3.530573790338288</v>
+        <v>703.4286435619415</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.530573790338288</v>
+        <v>495.6683447969875</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>752.9257720901863</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>527.5764290961142</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U17" t="n">
-        <v>284.1276524520142</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V17" t="n">
-        <v>40.6788758079141</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W17" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X17" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y17" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>110.334904905842</v>
+        <v>111.1159158480613</v>
       </c>
       <c r="C18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5603,10 +5603,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O18" t="n">
         <v>712.019119383956</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V18" t="n">
-        <v>110.334904905842</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W18" t="n">
-        <v>110.334904905842</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="X18" t="n">
-        <v>110.334904905842</v>
+        <v>111.1159158480613</v>
       </c>
       <c r="Y18" t="n">
-        <v>110.334904905842</v>
+        <v>111.1159158480613</v>
       </c>
     </row>
     <row r="19">
@@ -5700,10 +5700,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>136.7812428759814</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
         <v>19.28114311021272</v>
@@ -5837,16 +5837,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N21" t="n">
-        <v>726.4525409563269</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5861,22 +5861,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W21" t="n">
-        <v>720.6083788665362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X21" t="n">
-        <v>512.7568786610034</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y21" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H22" t="n">
         <v>19.28114311021272</v>
@@ -5943,19 +5943,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E23" t="n">
         <v>19.28114311021272</v>
@@ -6016,25 +6016,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>752.9257720901863</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U23" t="n">
-        <v>752.9257720901863</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V23" t="n">
-        <v>509.4769954460863</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W23" t="n">
-        <v>266.0282188019862</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>660.701031422288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>660.701031422288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6074,10 +6074,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>660.701031422288</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V24" t="n">
-        <v>660.701031422288</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W24" t="n">
-        <v>660.701031422288</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X24" t="n">
-        <v>660.701031422288</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
-        <v>660.701031422288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
         <v>19.28114311021272</v>
@@ -6180,19 +6180,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>518.2486856454962</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C26" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D26" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E26" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F26" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G26" t="n">
         <v>31.35113235729608</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U26" t="n">
-        <v>710.516763498309</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V26" t="n">
-        <v>710.516763498309</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W26" t="n">
-        <v>710.516763498309</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X26" t="n">
-        <v>710.516763498309</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y26" t="n">
-        <v>518.2486856454962</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="27">
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
         <v>19.28114311021272</v>
@@ -6314,16 +6314,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>790.6398109613051</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V27" t="n">
-        <v>790.6398109613051</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W27" t="n">
-        <v>777.5613083818946</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X27" t="n">
-        <v>569.7098081763618</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
-        <v>361.9495094114078</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
         <v>19.28114311021272</v>
@@ -6411,25 +6411,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
         <v>262.7299197543128</v>
@@ -6490,25 +6490,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>649.1947276839472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>474.7416984028202</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>325.807288741569</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6572,22 +6572,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W30" t="n">
-        <v>964.0571555106362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X30" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
-        <v>756.2968567456824</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6648,16 +6648,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
         <v>262.7299197543128</v>
@@ -6724,28 +6724,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>501.9060370580465</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="C33" t="n">
-        <v>327.4530077769195</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="D33" t="n">
-        <v>178.5185981156682</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6788,43 +6788,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>486.8488635328713</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>877.5099762486116</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>704.0926316992804</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>501.9060370580465</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>501.9060370580465</v>
+        <v>757.7857215515912</v>
       </c>
       <c r="V33" t="n">
-        <v>501.9060370580465</v>
+        <v>522.6336133198486</v>
       </c>
       <c r="W33" t="n">
-        <v>501.9060370580465</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="X33" t="n">
-        <v>501.9060370580465</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="Y33" t="n">
-        <v>501.9060370580465</v>
+        <v>279.1848366757484</v>
       </c>
     </row>
     <row r="34">
@@ -6879,28 +6879,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
         <v>19.28114311021272</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>588.0815197256143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>413.6284904444873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>264.694080783236</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>105.4566257777805</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>105.4566257777805</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>105.4566257777805</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7019,19 +7019,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7049,19 +7049,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y36" t="n">
-        <v>756.2968567456824</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>499.5061853699102</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
         <v>19.28114311021272</v>
@@ -7259,46 +7259,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>689.4702815141908</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V39" t="n">
-        <v>689.4702815141908</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W39" t="n">
-        <v>689.4702815141908</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X39" t="n">
-        <v>499.5061853699102</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
-        <v>499.5061853699102</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7432,28 +7432,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W41" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X41" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y41" t="n">
         <v>262.7299197543128</v>
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
         <v>19.28114311021272</v>
@@ -7496,10 +7496,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
         <v>725.4530095217538</v>
@@ -7520,22 +7520,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470253</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V42" t="n">
-        <v>500.6814290152826</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W42" t="n">
-        <v>257.2326523711826</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X42" t="n">
-        <v>49.38115216564972</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y42" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7672,28 +7672,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>569.2254314512334</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>569.2254314512334</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X44" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y44" t="n">
-        <v>325.7766548071333</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7736,16 +7736,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7754,25 +7754,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X45" t="n">
-        <v>257.2326523711826</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y45" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>186.728416823673</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>182.3308283893217</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6865521591028</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M6" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8540,19 +8540,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N9" t="n">
-        <v>173.6907663866335</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>262.4389053482807</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8774,22 +8774,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>180.9034340831744</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>186.2662063012469</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>278.1154692732874</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M14" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>176.3234617176304</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9251,13 +9251,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9485,7 +9485,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
@@ -9494,10 +9494,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9722,13 +9722,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9962,10 +9962,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10436,7 +10436,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>382.1386950879875</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10445,10 +10445,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,13 +10676,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10907,22 +10907,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11144,13 +11144,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11384,19 +11384,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>255.5148970497678</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22603,16 +22603,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>212.474035476212</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V2" t="n">
-        <v>283.6200860909063</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>305.1087963381844</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>325.5989282992405</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,25 +22676,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>14.50851215288949</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>194.6755610440586</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>207.562810781691</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>161.6408128242489</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>161.5505233980758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22716,19 +22716,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>101.2888756437027</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>123.8588069792302</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>118.095000128211</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>92.56872966899051</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>338.601669284252</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22846,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>310.3693512857885</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>325.5989282992405</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>342.105766276825</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22865,10 +22865,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>133.8368815566912</v>
+        <v>88.65127904629608</v>
       </c>
       <c r="D6" t="n">
-        <v>103.3128931854102</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22913,7 +22913,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22922,16 +22922,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>207.562810781691</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>161.5505233980758</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>135.6998078027087</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>132.7973439262303</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22995,7 +22995,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>338.601669284252</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,13 +23029,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>329.5048015845142</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,16 +23065,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>182.0977415092333</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23086,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23102,13 +23102,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>133.8368815566912</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23153,22 +23153,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>156.032556315593</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>150.1070334262686</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>161.5505233980758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23196,16 +23196,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23229,7 +23229,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23260,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>344.0891364002832</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23278,7 +23278,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23305,22 +23305,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>110.9975005095251</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8878972070167</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>178.9636771849028</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>82.47596370784768</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>127.5509987246092</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>187.0697646493503</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23433,16 +23433,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>338.601669284252</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,10 +23503,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>337.7981976930332</v>
+        <v>287.5198830785557</v>
       </c>
       <c r="F14" t="n">
-        <v>368.0044283100869</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23542,16 +23542,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23621,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>42.30033601825704</v>
       </c>
       <c r="S15" t="n">
-        <v>132.8115536722133</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>156.032556315593</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>188.6684147701967</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23642,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23697,16 +23697,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>179.8844256577437</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T16" t="n">
-        <v>227.1551389805992</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23740,7 +23740,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23752,7 +23752,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>189.2921341996816</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23779,7 +23779,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23788,13 +23788,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>236.9120424101793</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23813,7 +23813,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>81.79207397784563</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23831,10 +23831,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>85.56267508295639</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23940,13 +23940,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -24013,16 +24013,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24031,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>157.4457150350269</v>
+        <v>267.3928735857801</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>56.38340022020472</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24101,16 +24101,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>160.7877277095291</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I22" t="n">
         <v>155.4504749272583</v>
@@ -24183,7 +24183,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24211,10 +24211,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>151.7265451152921</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24256,25 +24256,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>366.4657846212723</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24290,19 +24290,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>64.73263038417613</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24420,7 +24420,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24445,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24457,7 +24457,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24487,31 +24487,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>340.0065027013012</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>195.8925415817688</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24521,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24572,19 +24572,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>238.7472656073032</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24651,7 +24651,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>113.6687527430239</v>
@@ -24730,25 +24730,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>348.5473453077446</v>
       </c>
       <c r="Y29" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24758,19 +24758,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>60.50207587874957</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24812,19 +24812,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>135.0341266295844</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24925,10 +24925,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>174.288448637476</v>
@@ -24964,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24998,22 +24998,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25043,22 +25043,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>14.47612668323873</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>121.8904966141635</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25119,7 +25119,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25131,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.5597290184211</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>224.9573404408503</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25177,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25213,16 +25213,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25232,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25250,7 +25250,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>26.92171639560435</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25289,16 +25289,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
         <v>155.4504749272583</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25405,7 +25405,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25414,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,25 +25435,25 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>160.679581861839</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>160.9567151697601</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25472,16 +25472,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>17.70853002063973</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25608,7 +25608,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25645,7 +25645,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25672,31 +25672,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W41" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25712,7 +25712,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>117.6460565997561</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25760,10 +25760,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>150.1070334262686</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>332.2668633158008</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25924,16 +25924,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25958,16 +25958,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>104.1501914090199</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25994,13 +25994,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>121.6254758352848</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26009,10 +26009,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>358683.4735004298</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>358683.47350043</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>358683.4735004299</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358683.4735004299</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358683.47350043</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71731.8032107192</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="C2" t="n">
-        <v>71731.8032107192</v>
+        <v>99696.40351879942</v>
       </c>
       <c r="D2" t="n">
-        <v>71731.8032107192</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="E2" t="n">
-        <v>71731.8032107192</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="F2" t="n">
-        <v>71731.80321071927</v>
+        <v>99696.40351879933</v>
       </c>
       <c r="G2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="H2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="I2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="J2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="K2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="L2" t="n">
         <v>99696.40351879939</v>
       </c>
-      <c r="K2" t="n">
-        <v>99696.40351879934</v>
-      </c>
-      <c r="L2" t="n">
-        <v>99696.40351879936</v>
-      </c>
       <c r="M2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879942</v>
       </c>
       <c r="N2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="O2" t="n">
         <v>99696.40351879939</v>
       </c>
       <c r="P2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879933</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53962.43490047232</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47379.87821746379</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="F4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="G4" t="n">
         <v>16914.68964098084</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8614.632621000455</v>
+        <v>-58486.99703753131</v>
       </c>
       <c r="C6" t="n">
-        <v>23404.33862524468</v>
+        <v>22282.43449401644</v>
       </c>
       <c r="D6" t="n">
-        <v>23404.33862524468</v>
+        <v>22282.43449401643</v>
       </c>
       <c r="E6" t="n">
-        <v>57031.93862524468</v>
+        <v>55910.03449401638</v>
       </c>
       <c r="F6" t="n">
-        <v>57031.93862524475</v>
+        <v>55910.03449401636</v>
       </c>
       <c r="G6" t="n">
-        <v>14165.61021358456</v>
+        <v>55910.03449401637</v>
       </c>
       <c r="H6" t="n">
-        <v>68128.04511405688</v>
+        <v>55910.03449401642</v>
       </c>
       <c r="I6" t="n">
-        <v>68128.04511405686</v>
+        <v>55910.03449401639</v>
       </c>
       <c r="J6" t="n">
-        <v>56581.12700406599</v>
+        <v>-7149.908105089864</v>
       </c>
       <c r="K6" t="n">
-        <v>68128.04511405683</v>
+        <v>55910.03449401638</v>
       </c>
       <c r="L6" t="n">
-        <v>68128.04511405685</v>
+        <v>55910.03449401641</v>
       </c>
       <c r="M6" t="n">
-        <v>68128.04511405685</v>
+        <v>55910.03449401644</v>
       </c>
       <c r="N6" t="n">
-        <v>68128.04511405685</v>
+        <v>55910.03449401642</v>
       </c>
       <c r="O6" t="n">
-        <v>20748.16689659309</v>
+        <v>55910.03449401641</v>
       </c>
       <c r="P6" t="n">
-        <v>68128.04511405686</v>
+        <v>55910.03449401635</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>42.34905430330019</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>44.13217237922859</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>42.34905430330016</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>42.34905430330019</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>44.13217237922859</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M6" t="n">
-        <v>42.34905430330019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>42.34905430330019</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N9" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>42.34905430330018</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>42.34905430330018</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>42.34905430330018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>42.34905430330019</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35971,13 +35971,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36205,7 +36205,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
@@ -36214,10 +36214,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>169.9091475161414</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36442,13 +36442,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36682,10 +36682,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36694,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37156,7 +37156,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37165,10 +37165,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37396,13 +37396,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37627,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -38104,19 +38104,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>113.3808631277495</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>267281.5962860413</v>
+        <v>361671.1651892321</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514378</v>
+        <v>2114249.189782366</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>19492207.60956401</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5765385.89860145</v>
+        <v>5117581.913230947</v>
       </c>
     </row>
     <row r="11">
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="U2" t="n">
-        <v>202.2946864288972</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S3" t="n">
-        <v>157.1746589509483</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U4" t="n">
-        <v>133.186967585368</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
     </row>
     <row r="5">
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="C6" t="n">
-        <v>84.05721994201966</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.790450447682255</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>52.42556848774763</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="9">
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V9" t="n">
-        <v>82.69355372315663</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1302,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="11">
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>21.18375537072436</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>241.0142888776591</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>84.05721994201966</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1508,13 +1508,13 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1651,25 +1651,25 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1685,16 +1685,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.85749813438609</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1751,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1852,14 +1852,14 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
@@ -1888,10 +1888,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>112.3289263072337</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>90.91642501047011</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>182.7004482653351</v>
       </c>
       <c r="W18" t="n">
         <v>241.0142888776591</v>
@@ -1991,7 +1991,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2125,31 +2125,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2216,19 +2216,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>90.90725545139047</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2256,43 +2256,43 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2317,23 +2317,23 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
-        <v>230.2038249569697</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>241.0142888776591</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="24">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2450,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>83.03189205754168</v>
       </c>
       <c r="U24" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2465,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2599,25 +2599,25 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>9.234466016111838</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2794,13 +2794,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2882,13 +2882,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>141.1928920897369</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>97.76646051984092</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3037,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>241.0142888776591</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3119,13 +3119,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>104.0508854668114</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3173,7 +3173,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3274,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,13 +3310,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3401,16 +3401,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>98.19508828039903</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3635,13 +3635,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>56.17030901074575</v>
       </c>
       <c r="U39" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
@@ -3669,61 +3669,61 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3748,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="H41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,19 +3787,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="42">
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>50.05769526855297</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3881,7 +3881,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>90.90725545139047</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3912,55 +3912,55 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4106,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>50.05769526855297</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>149.7575646117849</v>
       </c>
     </row>
     <row r="46">
@@ -4149,55 +4149,55 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U2" t="n">
-        <v>749.627473042513</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V2" t="n">
-        <v>506.1786963984129</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W2" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S3" t="n">
-        <v>805.2948737420015</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T3" t="n">
-        <v>603.1082791007675</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U3" t="n">
-        <v>603.1082791007675</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V3" t="n">
-        <v>603.1082791007675</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W3" t="n">
-        <v>603.1082791007675</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X3" t="n">
-        <v>395.2567788952347</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.4964801302808</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>477.1596022224361</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C5" t="n">
-        <v>262.7299197543128</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y5" t="n">
-        <v>477.1596022224361</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>104.1874258799295</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L6" t="n">
-        <v>248.2447175439888</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T6" t="n">
-        <v>790.6398109613051</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U6" t="n">
-        <v>790.6398109613051</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V6" t="n">
-        <v>555.4877027295624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W6" t="n">
-        <v>312.0389260854624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X6" t="n">
-        <v>104.1874258799295</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y6" t="n">
-        <v>104.1874258799295</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.99639902664363</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.99639902664363</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.99639902664363</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.99639902664363</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.99639902664363</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.99639902664363</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.99639902664363</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>69.3105240343566</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>108.4985622265788</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>152.1894128820151</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>559.1338160830064</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C8" t="n">
-        <v>559.1338160830064</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D8" t="n">
-        <v>559.1338160830064</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E8" t="n">
-        <v>506.1786963984129</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="W8" t="n">
-        <v>802.5825927271064</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="X8" t="n">
-        <v>802.5825927271064</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="Y8" t="n">
-        <v>559.1338160830064</v>
+        <v>121.8591222504766</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="U9" t="n">
-        <v>761.8705608694022</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="V9" t="n">
-        <v>678.3417187247995</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="W9" t="n">
-        <v>434.8929420806995</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="X9" t="n">
-        <v>227.0414418751666</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>40.6788758079141</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L11" t="n">
-        <v>302.3720006057937</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M11" t="n">
-        <v>519.3476278686978</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N11" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O11" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P11" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S11" t="n">
-        <v>752.9257720901863</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T11" t="n">
-        <v>527.5764290961142</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U11" t="n">
-        <v>284.1276524520142</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V11" t="n">
-        <v>284.1276524520142</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W11" t="n">
-        <v>40.6788758079141</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="X11" t="n">
-        <v>40.6788758079141</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Y11" t="n">
-        <v>40.6788758079141</v>
+        <v>137.2644294849704</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M12" t="n">
-        <v>249.2442489785619</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N12" t="n">
-        <v>487.8483949674443</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O12" t="n">
-        <v>726.4525409563269</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P12" t="n">
-        <v>909.0960185696777</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>790.6398109613051</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T12" t="n">
-        <v>790.6398109613051</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U12" t="n">
-        <v>790.6398109613051</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V12" t="n">
-        <v>555.4877027295624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W12" t="n">
-        <v>312.0389260854624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="X12" t="n">
-        <v>104.1874258799295</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Y12" t="n">
-        <v>104.1874258799295</v>
+        <v>137.2644294849704</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>114.6452713866835</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C14" t="n">
-        <v>114.6452713866835</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D14" t="n">
-        <v>114.6452713866835</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L14" t="n">
-        <v>302.3720006057937</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M14" t="n">
-        <v>519.3476278686978</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N14" t="n">
-        <v>725.2021500759372</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O14" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P14" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R14" t="n">
-        <v>812.6742080953335</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S14" t="n">
-        <v>601.5428246748836</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="T14" t="n">
-        <v>601.5428246748836</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="U14" t="n">
-        <v>358.0940480307835</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="V14" t="n">
-        <v>358.0940480307835</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="W14" t="n">
-        <v>358.0940480307835</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X14" t="n">
-        <v>358.0940480307835</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y14" t="n">
-        <v>358.0940480307835</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>327.4530077769195</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C15" t="n">
-        <v>327.4530077769195</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D15" t="n">
-        <v>178.5185981156682</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M15" t="n">
-        <v>473.4149733950735</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N15" t="n">
-        <v>712.019119383956</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>905.6152382031755</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>905.6152382031755</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T15" t="n">
-        <v>703.4286435619415</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U15" t="n">
-        <v>703.4286435619415</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V15" t="n">
-        <v>703.4286435619415</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W15" t="n">
-        <v>703.4286435619415</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="X15" t="n">
-        <v>703.4286435619415</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y15" t="n">
-        <v>495.6683447969875</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="17">
@@ -5500,10 +5500,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5536,25 +5536,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>601.5428246748836</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T17" t="n">
-        <v>376.1934816808115</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U17" t="n">
-        <v>376.1934816808115</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V17" t="n">
-        <v>376.1934816808115</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W17" t="n">
-        <v>262.7299197543128</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X17" t="n">
         <v>262.7299197543128</v>
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>111.1159158480613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
         <v>19.28114311021272</v>
@@ -5600,46 +5600,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>562.4161926976942</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V18" t="n">
-        <v>562.4161926976942</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W18" t="n">
-        <v>318.9674160535941</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X18" t="n">
-        <v>111.1159158480613</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y18" t="n">
-        <v>111.1159158480613</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5700,19 +5700,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>366.1018663125844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W20" t="n">
-        <v>366.1018663125844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="21">
@@ -5834,22 +5834,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5864,16 +5864,16 @@
         <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>761.8705608694022</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>526.7184526376595</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W21" t="n">
-        <v>434.8929420806995</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X21" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
         <v>19.28114311021272</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
         <v>19.28114311021272</v>
@@ -5940,22 +5940,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>495.259035872464</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V23" t="n">
-        <v>495.259035872464</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W23" t="n">
-        <v>495.259035872464</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X23" t="n">
-        <v>495.259035872464</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y23" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C24" t="n">
         <v>19.28114311021272</v>
@@ -6077,7 +6077,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6098,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>880.1865574727153</v>
       </c>
       <c r="U24" t="n">
-        <v>913.4938269565423</v>
+        <v>880.1865574727153</v>
       </c>
       <c r="V24" t="n">
-        <v>678.3417187247995</v>
+        <v>645.0344492409727</v>
       </c>
       <c r="W24" t="n">
-        <v>434.8929420806995</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X24" t="n">
-        <v>227.0414418751666</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="25">
@@ -6180,10 +6180,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>527.5764290961142</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6314,10 +6314,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6411,10 +6411,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
         <v>19.28114311021272</v>
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E29" t="n">
         <v>19.28114311021272</v>
@@ -6499,16 +6499,16 @@
         <v>527.5764290961142</v>
       </c>
       <c r="V29" t="n">
-        <v>284.1276524520142</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W29" t="n">
-        <v>284.1276524520142</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>527.5764290961142</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>414.0001870389441</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>414.0001870389441</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>414.0001870389441</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6554,13 +6554,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>533.6469426057913</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V30" t="n">
-        <v>434.8929420806995</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W30" t="n">
-        <v>434.8929420806995</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X30" t="n">
-        <v>227.0414418751666</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="31">
@@ -6651,13 +6651,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
         <v>262.7299197543128</v>
@@ -6733,19 +6733,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>279.1848366757484</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>279.1848366757484</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>279.1848366757484</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>279.1848366757484</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6788,43 +6788,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>487.8483949674443</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>726.4525409563269</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>909.0960185696777</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>757.7857215515912</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V33" t="n">
-        <v>522.6336133198486</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W33" t="n">
-        <v>279.1848366757484</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X33" t="n">
-        <v>279.1848366757484</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>279.1848366757484</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C36" t="n">
         <v>19.28114311021272</v>
@@ -7019,22 +7019,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7049,19 +7049,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>913.4938269565423</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>678.3417187247995</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>434.8929420806995</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X36" t="n">
-        <v>227.0414418751666</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="37">
@@ -7134,7 +7134,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
         <v>19.28114311021272</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T38" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7283,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>907.3194696411961</v>
       </c>
       <c r="U39" t="n">
-        <v>913.4938269565423</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="V39" t="n">
-        <v>678.3417187247995</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W39" t="n">
-        <v>434.8929420806995</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X39" t="n">
-        <v>227.0414418751666</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
         <v>19.28114311021272</v>
@@ -7371,13 +7371,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7435,28 +7435,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X41" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="42">
@@ -7496,10 +7496,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N42" t="n">
         <v>725.4530095217538</v>
@@ -7520,13 +7520,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>913.4938269565423</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U42" t="n">
-        <v>913.4938269565423</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V42" t="n">
-        <v>678.3417187247995</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W42" t="n">
         <v>434.8929420806995</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
         <v>19.28114311021272</v>
@@ -7608,13 +7608,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="F44" t="n">
         <v>19.28114311021272</v>
@@ -7672,28 +7672,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W44" t="n">
-        <v>749.627473042513</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="X44" t="n">
-        <v>506.1786963984129</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>587.3248651012614</v>
       </c>
     </row>
     <row r="45">
@@ -7703,7 +7703,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C45" t="n">
         <v>19.28114311021272</v>
@@ -7730,22 +7730,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M45" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N45" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7754,25 +7754,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>913.4938269565423</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>913.4938269565423</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U45" t="n">
-        <v>913.4938269565423</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V45" t="n">
-        <v>678.3417187247995</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W45" t="n">
-        <v>434.8929420806995</v>
+        <v>345.004439675971</v>
       </c>
       <c r="X45" t="n">
-        <v>227.0414418751666</v>
+        <v>345.004439675971</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
         <v>19.28114311021272</v>
@@ -7845,13 +7845,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>185.8815939223662</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L6" t="n">
-        <v>369.8307175917693</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M9" t="n">
-        <v>359.8407857361378</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>195.4980740263837</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504505</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9011,22 +9011,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M15" t="n">
-        <v>368.5691090902119</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9248,22 +9248,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O18" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9725,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9962,13 +9962,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10202,16 +10202,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10436,19 +10436,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>195.4980740263837</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,16 +10676,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O36" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,16 +10913,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11144,13 +11144,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M45" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22600,19 +22600,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>184.2242321325068</v>
       </c>
       <c r="U2" t="n">
-        <v>49.05096647893927</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S3" t="n">
-        <v>14.50851215288949</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>161.2931112631971</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22758,22 +22758,22 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U4" t="n">
-        <v>153.1320617711229</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>217.7942029044125</v>
       </c>
     </row>
     <row r="5">
@@ -22786,19 +22786,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22843,16 +22843,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>288.8806410385104</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>127.6615662182428</v>
       </c>
       <c r="C6" t="n">
-        <v>88.65127904629608</v>
+        <v>128.5763266090871</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22913,7 +22913,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22922,16 +22922,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="7">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>135.6998078027087</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22950,7 +22950,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>145.6435121988869</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -22989,13 +22989,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T7" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23020,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>353.8529234464008</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>329.5048015845142</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="9">
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23153,22 +23153,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>162.0397025894549</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V9" t="n">
-        <v>150.1070334262686</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23190,16 +23190,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>101.2888756437027</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>118.095000128211</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>154.660024479576</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -23229,7 +23229,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23247,7 +23247,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>174.4524809728662</v>
       </c>
     </row>
     <row r="11">
@@ -23260,10 +23260,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>344.0891364002832</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>310.5508692414544</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23272,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23308,19 +23308,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>310.3693512857885</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23336,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>82.47596370784768</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>128.5763266090871</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23354,7 +23354,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23387,7 +23387,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>132.8115536722133</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23396,13 +23396,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23466,25 +23466,25 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>217.7942029044125</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,13 +23503,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>287.5198830785557</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23539,25 +23539,25 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>320.3600505003333</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23573,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>42.30033601825704</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>187.0697646493503</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23639,10 +23639,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>166.4563706509456</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23703,22 +23703,22 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23740,13 +23740,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23776,10 +23776,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23794,10 +23794,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9120424101793</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>358.5380445222895</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23813,7 +23813,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>81.79207397784563</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23858,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>50.10013888409014</v>
       </c>
       <c r="W18" t="n">
         <v>10.68069428326055</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23940,7 +23940,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23977,13 +23977,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24013,31 +24013,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>267.3928735857801</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24104,19 +24104,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>160.7877277095291</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24144,7 +24144,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
         <v>155.4504749272583</v>
@@ -24180,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>151.7265451152921</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24259,7 +24259,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>10.33136403017744</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="24">
@@ -24287,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24338,10 +24338,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>117.1328366372799</v>
       </c>
       <c r="U24" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24420,13 +24420,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24457,7 +24457,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24466,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,25 +24487,25 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>31.13252716541155</v>
       </c>
       <c r="V26" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>340.0065027013012</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24651,13 +24651,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24682,13 +24682,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>360.7466147015374</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24739,13 +24739,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>348.5473453077446</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24761,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24770,13 +24770,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>3.876320303646935</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24809,25 +24809,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>135.0341266295844</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24891,7 +24891,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24925,10 +24925,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>174.288448637476</v>
@@ -24973,19 +24973,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>49.05096647893927</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -25007,13 +25007,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>121.8904966141635</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25061,7 +25061,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>141.8841621389552</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25162,13 +25162,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>224.9573404408503</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25177,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,13 +25198,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25213,7 +25213,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>324.4869424129383</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25235,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25289,16 +25289,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>107.5778969230784</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25402,7 +25402,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
@@ -25414,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>160.9567151697601</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25523,13 +25523,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>143.9944196840759</v>
       </c>
       <c r="U39" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25636,16 +25636,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>213.0080510862378</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25675,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25760,7 +25760,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>150.1070334262686</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25769,7 +25769,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>160.7877277095291</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25876,7 +25876,7 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>326.5413387258914</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25912,13 +25912,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25927,10 +25927,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25946,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25994,25 +25994,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>121.6254758352848</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>55.92513116551942</v>
       </c>
     </row>
     <row r="46">
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>498601.1074841412</v>
+        <v>358683.4735004298</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>498601.1074841411</v>
+        <v>358683.47350043</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>498601.1074841411</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>498601.1074841411</v>
+        <v>358683.4735004298</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>498601.1074841411</v>
+        <v>358683.4735004298</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498601.107484141</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498601.107484141</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498601.107484141</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99696.40351879939</v>
+        <v>71731.8032107192</v>
       </c>
       <c r="C2" t="n">
-        <v>99696.40351879942</v>
+        <v>71731.8032107192</v>
       </c>
       <c r="D2" t="n">
+        <v>71731.80321071927</v>
+      </c>
+      <c r="E2" t="n">
+        <v>71731.8032107192</v>
+      </c>
+      <c r="F2" t="n">
+        <v>71731.8032107192</v>
+      </c>
+      <c r="G2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="H2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="I2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="J2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="K2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="L2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="M2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="N2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="O2" t="n">
         <v>99696.4035187994</v>
       </c>
-      <c r="E2" t="n">
+      <c r="P2" t="n">
         <v>99696.40351879936</v>
-      </c>
-      <c r="F2" t="n">
-        <v>99696.40351879933</v>
-      </c>
-      <c r="G2" t="n">
-        <v>99696.40351879934</v>
-      </c>
-      <c r="H2" t="n">
-        <v>99696.4035187994</v>
-      </c>
-      <c r="I2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="J2" t="n">
-        <v>99696.40351879934</v>
-      </c>
-      <c r="K2" t="n">
-        <v>99696.40351879936</v>
-      </c>
-      <c r="L2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="M2" t="n">
-        <v>99696.40351879942</v>
-      </c>
-      <c r="N2" t="n">
-        <v>99696.4035187994</v>
-      </c>
-      <c r="O2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="P2" t="n">
-        <v>99696.40351879933</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16914.68964098084</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="C4" t="n">
-        <v>16914.68964098084</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="D4" t="n">
-        <v>16914.68964098084</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="E4" t="n">
-        <v>16914.68964098084</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="F4" t="n">
-        <v>16914.68964098084</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="G4" t="n">
         <v>16914.68964098084</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58486.99703753131</v>
+        <v>7159.793223095741</v>
       </c>
       <c r="C6" t="n">
-        <v>22282.43449401644</v>
+        <v>21949.49922733997</v>
       </c>
       <c r="D6" t="n">
-        <v>22282.43449401643</v>
+        <v>21949.49922734004</v>
       </c>
       <c r="E6" t="n">
-        <v>55910.03449401638</v>
+        <v>55577.09922733996</v>
       </c>
       <c r="F6" t="n">
-        <v>55910.03449401636</v>
+        <v>55577.09922733996</v>
       </c>
       <c r="G6" t="n">
-        <v>55910.03449401637</v>
+        <v>12943.80915158048</v>
       </c>
       <c r="H6" t="n">
-        <v>55910.03449401642</v>
+        <v>66906.2440520528</v>
       </c>
       <c r="I6" t="n">
-        <v>55910.03449401639</v>
+        <v>66906.2440520528</v>
       </c>
       <c r="J6" t="n">
-        <v>-7149.908105089864</v>
+        <v>55359.32594206191</v>
       </c>
       <c r="K6" t="n">
-        <v>55910.03449401638</v>
+        <v>66906.24405205279</v>
       </c>
       <c r="L6" t="n">
-        <v>55910.03449401641</v>
+        <v>66906.24405205282</v>
       </c>
       <c r="M6" t="n">
-        <v>55910.03449401644</v>
+        <v>66906.2440520528</v>
       </c>
       <c r="N6" t="n">
-        <v>55910.03449401642</v>
+        <v>66906.2440520528</v>
       </c>
       <c r="O6" t="n">
-        <v>55910.03449401641</v>
+        <v>19526.36583458905</v>
       </c>
       <c r="P6" t="n">
-        <v>55910.03449401635</v>
+        <v>66906.2440520528</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L6" t="n">
-        <v>231.276337811895</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M9" t="n">
-        <v>217.7067518141195</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>55.51629994036219</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M15" t="n">
-        <v>226.4350751681936</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O18" t="n">
-        <v>217.7067518141195</v>
-      </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36445,10 +36445,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>169.9067907798017</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36682,13 +36682,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36922,16 +36922,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37156,19 +37156,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37396,16 +37396,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
+        <v>43.28534947792182</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O36" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37633,16 +37633,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O39" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M45" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
